--- a/OutputFolder/template.xlsx
+++ b/OutputFolder/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programming\CO-PO_Attainment_System\OutputFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAKUNO\Desktop\COPO\CO-PO_Attainment_System\OutputFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC7DDF0-EA1F-486B-9D48-0DF51C1CE338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0826C9-7027-4794-9673-F960D802E2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="1170" windowWidth="20820" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Format" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="127">
   <si>
     <t>Daffodil International University</t>
   </si>
@@ -324,489 +324,6 @@
   </si>
   <si>
     <t>Md. Ashikur Rahman</t>
-  </si>
-  <si>
-    <t>191-15-2470</t>
-  </si>
-  <si>
-    <t>FARJANA ABEDIN BOBY</t>
-  </si>
-  <si>
-    <t>191-15-2483</t>
-  </si>
-  <si>
-    <t>MD. SHAKAWATH HOSSEN</t>
-  </si>
-  <si>
-    <t>191-15-2494</t>
-  </si>
-  <si>
-    <t>MD. SALMAN SAKIB RAHMAN ZESAN</t>
-  </si>
-  <si>
-    <t>191-15-2502</t>
-  </si>
-  <si>
-    <t>Mizanur Rahman Masum</t>
-  </si>
-  <si>
-    <t>191-15-2507</t>
-  </si>
-  <si>
-    <t>SHAH MOAZZAM HOSSEN SHIBLEE</t>
-  </si>
-  <si>
-    <t>191-15-2508</t>
-  </si>
-  <si>
-    <t>MD. SOFIQUL ISLAM</t>
-  </si>
-  <si>
-    <t>191-15-2514</t>
-  </si>
-  <si>
-    <t>YASIN KHAN RABBI</t>
-  </si>
-  <si>
-    <t>191-15-2543</t>
-  </si>
-  <si>
-    <t>MD. ZIA UDDIN</t>
-  </si>
-  <si>
-    <t>191-15-2549</t>
-  </si>
-  <si>
-    <t>Farzana Yesmin</t>
-  </si>
-  <si>
-    <t>191-15-2554</t>
-  </si>
-  <si>
-    <t>Tajrin Jahan Mukta</t>
-  </si>
-  <si>
-    <t>191-15-2605</t>
-  </si>
-  <si>
-    <t>Nafisa Nazneen</t>
-  </si>
-  <si>
-    <t>191-15-2622</t>
-  </si>
-  <si>
-    <t>Mst. Sonia</t>
-  </si>
-  <si>
-    <t>191-15-2709</t>
-  </si>
-  <si>
-    <t>MUHAMMAD OSIUR RAHMAN MOZU</t>
-  </si>
-  <si>
-    <t>191-15-2736</t>
-  </si>
-  <si>
-    <t>Md. Ashiqul Islam</t>
-  </si>
-  <si>
-    <t>191-15-2773</t>
-  </si>
-  <si>
-    <t>Sheikh Mufrad Hossain</t>
-  </si>
-  <si>
-    <t>191-15-2344</t>
-  </si>
-  <si>
-    <t>Tanjina Nur Jeba</t>
-  </si>
-  <si>
-    <t>191-15-2351</t>
-  </si>
-  <si>
-    <t>Atia Fyrose</t>
-  </si>
-  <si>
-    <t>191-15-2365</t>
-  </si>
-  <si>
-    <t>Md. Reduan Shahriar</t>
-  </si>
-  <si>
-    <t>191-15-2398</t>
-  </si>
-  <si>
-    <t>Md. Imtius Ahammed</t>
-  </si>
-  <si>
-    <t>191-15-2399</t>
-  </si>
-  <si>
-    <t>Md. Rifat Mahmud Rakib</t>
-  </si>
-  <si>
-    <t>191-15-2402</t>
-  </si>
-  <si>
-    <t>Md. Forhad Hossain Rahi</t>
-  </si>
-  <si>
-    <t>191-15-2413</t>
-  </si>
-  <si>
-    <t>Md. Mossaddak Hossain</t>
-  </si>
-  <si>
-    <t>191-15-2414</t>
-  </si>
-  <si>
-    <t>Md Shariar Kabir</t>
-  </si>
-  <si>
-    <t>191-15-2420</t>
-  </si>
-  <si>
-    <t>Shazzad Hossen</t>
-  </si>
-  <si>
-    <t>191-15-2421</t>
-  </si>
-  <si>
-    <t>Abu Taher</t>
-  </si>
-  <si>
-    <t>191-15-2429</t>
-  </si>
-  <si>
-    <t>Fardeen Mahmud</t>
-  </si>
-  <si>
-    <t>191-15-2434</t>
-  </si>
-  <si>
-    <t>Sumiya Mahmud Monisha</t>
-  </si>
-  <si>
-    <t>191-15-2440</t>
-  </si>
-  <si>
-    <t>Tanjina Akter Choity</t>
-  </si>
-  <si>
-    <t>191-15-2445</t>
-  </si>
-  <si>
-    <t>Kamrul Kader Mehadi Khan</t>
-  </si>
-  <si>
-    <t>191-15-2458</t>
-  </si>
-  <si>
-    <t>Zibran Ahmmad Eshan</t>
-  </si>
-  <si>
-    <t>191-15-2471</t>
-  </si>
-  <si>
-    <t>K. M. NASIR UDDIN HRIDOY</t>
-  </si>
-  <si>
-    <t>191-15-2484</t>
-  </si>
-  <si>
-    <t>Md. Al - Sajiduzzaman Akand</t>
-  </si>
-  <si>
-    <t>191-15-2493</t>
-  </si>
-  <si>
-    <t>RIFAT SIKDER PRANTO</t>
-  </si>
-  <si>
-    <t>191-15-2522</t>
-  </si>
-  <si>
-    <t>TANVIR REZWAN</t>
-  </si>
-  <si>
-    <t>191-15-2523</t>
-  </si>
-  <si>
-    <t>MD. SHOHIDUL ISLAM POLASH</t>
-  </si>
-  <si>
-    <t>191-15-2531</t>
-  </si>
-  <si>
-    <t>Md. Tanzir Ahmed</t>
-  </si>
-  <si>
-    <t>191-15-2535</t>
-  </si>
-  <si>
-    <t>Mehedi Hasan</t>
-  </si>
-  <si>
-    <t>191-15-2552</t>
-  </si>
-  <si>
-    <t>Jakia Khanom</t>
-  </si>
-  <si>
-    <t>191-15-2557</t>
-  </si>
-  <si>
-    <t>Md. Najmul Hasan</t>
-  </si>
-  <si>
-    <t>191-15-2560</t>
-  </si>
-  <si>
-    <t>Rina Sultana</t>
-  </si>
-  <si>
-    <t>191-15-2562</t>
-  </si>
-  <si>
-    <t>Sarwar Azmain Reza</t>
-  </si>
-  <si>
-    <t>191-15-2563</t>
-  </si>
-  <si>
-    <t>Md. Mustakim</t>
-  </si>
-  <si>
-    <t>191-15-2568</t>
-  </si>
-  <si>
-    <t>Tamanna</t>
-  </si>
-  <si>
-    <t>191-15-2580</t>
-  </si>
-  <si>
-    <t>Tanzila Akhter Mim</t>
-  </si>
-  <si>
-    <t>191-15-2624</t>
-  </si>
-  <si>
-    <t>MOMINUL ISLAM</t>
-  </si>
-  <si>
-    <t>191-15-2630</t>
-  </si>
-  <si>
-    <t>Shafkat Md. Sabid Alam</t>
-  </si>
-  <si>
-    <t>191-15-2635</t>
-  </si>
-  <si>
-    <t>Surove Paul</t>
-  </si>
-  <si>
-    <t>191-15-2640</t>
-  </si>
-  <si>
-    <t>Khadija Tut Tahera</t>
-  </si>
-  <si>
-    <t>191-15-2642</t>
-  </si>
-  <si>
-    <t>Md. Atik Bhuiyan</t>
-  </si>
-  <si>
-    <t>191-15-2648</t>
-  </si>
-  <si>
-    <t>ANUPOM PAUL ORNOB</t>
-  </si>
-  <si>
-    <t>191-15-2649</t>
-  </si>
-  <si>
-    <t>Alif Jawat</t>
-  </si>
-  <si>
-    <t>191-15-2663</t>
-  </si>
-  <si>
-    <t>MD. MAHMUD HASSAN</t>
-  </si>
-  <si>
-    <t>191-15-2682</t>
-  </si>
-  <si>
-    <t>Apu Ryhan</t>
-  </si>
-  <si>
-    <t>191-15-2341</t>
-  </si>
-  <si>
-    <t>Pritue Mondal</t>
-  </si>
-  <si>
-    <t>191-15-2349</t>
-  </si>
-  <si>
-    <t>Md. Fazley Atif Maruf</t>
-  </si>
-  <si>
-    <t>191-15-2362</t>
-  </si>
-  <si>
-    <t>Rasel Hider Nobin</t>
-  </si>
-  <si>
-    <t>191-15-2363</t>
-  </si>
-  <si>
-    <t>Md. Nahid Sharif</t>
-  </si>
-  <si>
-    <t>191-15-2368</t>
-  </si>
-  <si>
-    <t>Golam Kibria Khan</t>
-  </si>
-  <si>
-    <t>191-15-2372</t>
-  </si>
-  <si>
-    <t>SHARAF SHAHARIARE RAD</t>
-  </si>
-  <si>
-    <t>191-15-2378</t>
-  </si>
-  <si>
-    <t>Md. Moshiur Rahman</t>
-  </si>
-  <si>
-    <t>191-15-2393</t>
-  </si>
-  <si>
-    <t>Mokhlesur Rahman</t>
-  </si>
-  <si>
-    <t>191-15-2394</t>
-  </si>
-  <si>
-    <t>Mirza Shahriyar Rahman</t>
-  </si>
-  <si>
-    <t>191-15-2407</t>
-  </si>
-  <si>
-    <t>Md. Naimul Hossaine Nabil</t>
-  </si>
-  <si>
-    <t>191-15-2456</t>
-  </si>
-  <si>
-    <t>Mahsuba Meherun Nessa Samia</t>
-  </si>
-  <si>
-    <t>191-15-2468</t>
-  </si>
-  <si>
-    <t>Md. Parvez</t>
-  </si>
-  <si>
-    <t>191-15-2474</t>
-  </si>
-  <si>
-    <t>ISRAT JAHAN SHOSHE</t>
-  </si>
-  <si>
-    <t>191-15-2481</t>
-  </si>
-  <si>
-    <t>ABDULLAH IBN ATIQ</t>
-  </si>
-  <si>
-    <t>191-15-2490</t>
-  </si>
-  <si>
-    <t>Md. Ali - Al - Alvy</t>
-  </si>
-  <si>
-    <t>191-15-2500</t>
-  </si>
-  <si>
-    <t>Shahida Akter</t>
-  </si>
-  <si>
-    <t>191-15-2532</t>
-  </si>
-  <si>
-    <t>Abu Sufian</t>
-  </si>
-  <si>
-    <t>191-15-2550</t>
-  </si>
-  <si>
-    <t>Progga Parmita Karmokar</t>
-  </si>
-  <si>
-    <t>191-15-2559</t>
-  </si>
-  <si>
-    <t>Md. Muzahidul Islam Khandakar</t>
-  </si>
-  <si>
-    <t>191-15-2576</t>
-  </si>
-  <si>
-    <t>Al - Mamun</t>
-  </si>
-  <si>
-    <t>191-15-2577</t>
-  </si>
-  <si>
-    <t>Anika Tafannum</t>
-  </si>
-  <si>
-    <t>191-15-2579</t>
-  </si>
-  <si>
-    <t>Farzana Akter</t>
-  </si>
-  <si>
-    <t>191-15-2585</t>
-  </si>
-  <si>
-    <t>Bonna Akter</t>
-  </si>
-  <si>
-    <t>191-15-2586</t>
-  </si>
-  <si>
-    <t>MD. SAKHAWT</t>
-  </si>
-  <si>
-    <t>191-15-2600</t>
-  </si>
-  <si>
-    <t>Sabbir Ahmad</t>
-  </si>
-  <si>
-    <t>191-15-2603</t>
-  </si>
-  <si>
-    <t>Md. Abid Hasan</t>
-  </si>
-  <si>
-    <t>191-15-2611</t>
-  </si>
-  <si>
-    <t>Md. Robiul Islam</t>
-  </si>
-  <si>
-    <t>191-15-2612</t>
   </si>
   <si>
     <t>CO 3</t>
@@ -1274,7 +791,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1586,6 +1103,9 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1807,8 +1327,8 @@
   </sheetPr>
   <dimension ref="A1:BL359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N281" sqref="N281"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5495,40 +5015,18 @@
     </row>
     <row r="43" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="45">
-        <v>21</v>
-      </c>
-      <c r="C43" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="F43" s="48">
-        <v>4</v>
-      </c>
-      <c r="G43" s="47">
-        <v>3</v>
-      </c>
-      <c r="H43" s="47">
-        <v>5.5</v>
-      </c>
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
       <c r="I43" s="56"/>
-      <c r="J43" s="50">
-        <v>8</v>
-      </c>
-      <c r="K43" s="50">
-        <v>8</v>
-      </c>
-      <c r="L43" s="50">
-        <v>6</v>
-      </c>
-      <c r="M43" s="50">
-        <v>8.5</v>
-      </c>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
       <c r="N43" s="19"/>
       <c r="O43" s="52"/>
       <c r="P43" s="53"/>
@@ -5583,40 +5081,18 @@
     </row>
     <row r="44" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="55">
-        <v>22</v>
-      </c>
-      <c r="C44" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="E44" s="47">
-        <v>3</v>
-      </c>
-      <c r="F44" s="48">
-        <v>3</v>
-      </c>
-      <c r="G44" s="47">
-        <v>3</v>
-      </c>
-      <c r="H44" s="47">
-        <v>4.0999999999999996</v>
-      </c>
+      <c r="B44" s="55"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
       <c r="I44" s="49"/>
-      <c r="J44" s="50">
-        <v>9</v>
-      </c>
-      <c r="K44" s="50">
-        <v>8</v>
-      </c>
-      <c r="L44" s="50">
-        <v>8</v>
-      </c>
-      <c r="M44" s="50">
-        <v>10</v>
-      </c>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
       <c r="N44" s="61"/>
       <c r="O44" s="52"/>
       <c r="P44" s="53"/>
@@ -5671,40 +5147,18 @@
     </row>
     <row r="45" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="45">
-        <v>23</v>
-      </c>
-      <c r="C45" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="47">
-        <v>3</v>
-      </c>
-      <c r="F45" s="48">
-        <v>2.6</v>
-      </c>
-      <c r="G45" s="47">
-        <v>1</v>
-      </c>
-      <c r="H45" s="47">
-        <v>5.5</v>
-      </c>
+      <c r="B45" s="45"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
       <c r="I45" s="56"/>
-      <c r="J45" s="50">
-        <v>6</v>
-      </c>
-      <c r="K45" s="50">
-        <v>6</v>
-      </c>
-      <c r="L45" s="50">
-        <v>5</v>
-      </c>
-      <c r="M45" s="50">
-        <v>6.5</v>
-      </c>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
       <c r="N45" s="30"/>
       <c r="O45" s="52"/>
       <c r="P45" s="53"/>
@@ -5759,40 +5213,18 @@
     </row>
     <row r="46" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="55">
-        <v>24</v>
-      </c>
-      <c r="C46" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" s="47">
-        <v>4.5</v>
-      </c>
-      <c r="F46" s="48">
-        <v>3</v>
-      </c>
-      <c r="G46" s="47">
-        <v>2.5</v>
-      </c>
-      <c r="H46" s="47">
-        <v>6.3</v>
-      </c>
+      <c r="B46" s="55"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
       <c r="I46" s="49"/>
-      <c r="J46" s="50">
-        <v>7</v>
-      </c>
-      <c r="K46" s="50">
-        <v>7.5</v>
-      </c>
-      <c r="L46" s="50">
-        <v>5</v>
-      </c>
-      <c r="M46" s="50">
-        <v>8</v>
-      </c>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
       <c r="N46" s="30"/>
       <c r="O46" s="52"/>
       <c r="P46" s="53"/>
@@ -5847,40 +5279,18 @@
     </row>
     <row r="47" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="45">
-        <v>25</v>
-      </c>
-      <c r="C47" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="E47" s="47">
-        <v>3</v>
-      </c>
-      <c r="F47" s="48">
-        <v>2.5</v>
-      </c>
-      <c r="G47" s="47">
-        <v>0.7</v>
-      </c>
-      <c r="H47" s="47">
-        <v>5.5</v>
-      </c>
+      <c r="B47" s="45"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
       <c r="I47" s="56"/>
-      <c r="J47" s="50">
-        <v>6</v>
-      </c>
-      <c r="K47" s="50">
-        <v>5</v>
-      </c>
-      <c r="L47" s="50">
-        <v>6</v>
-      </c>
-      <c r="M47" s="50">
-        <v>0</v>
-      </c>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="50"/>
       <c r="N47" s="61"/>
       <c r="O47" s="52"/>
       <c r="P47" s="53"/>
@@ -5935,40 +5345,18 @@
     </row>
     <row r="48" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="55">
-        <v>26</v>
-      </c>
-      <c r="C48" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="E48" s="47">
-        <v>3</v>
-      </c>
-      <c r="F48" s="48">
-        <v>2.6</v>
-      </c>
-      <c r="G48" s="47">
-        <v>1</v>
-      </c>
-      <c r="H48" s="47">
-        <v>5.5</v>
-      </c>
+      <c r="B48" s="55"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
       <c r="I48" s="49"/>
-      <c r="J48" s="50">
-        <v>7</v>
-      </c>
-      <c r="K48" s="50">
-        <v>7</v>
-      </c>
-      <c r="L48" s="50">
-        <v>5</v>
-      </c>
-      <c r="M48" s="50">
-        <v>8</v>
-      </c>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="50"/>
       <c r="N48" s="61"/>
       <c r="O48" s="52"/>
       <c r="P48" s="53"/>
@@ -6023,40 +5411,18 @@
     </row>
     <row r="49" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="45">
-        <v>27</v>
-      </c>
-      <c r="C49" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="E49" s="47">
-        <v>3.6</v>
-      </c>
-      <c r="F49" s="48">
-        <v>3</v>
-      </c>
-      <c r="G49" s="47">
-        <v>3</v>
-      </c>
-      <c r="H49" s="47">
-        <v>4</v>
-      </c>
+      <c r="B49" s="45"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
       <c r="I49" s="56"/>
-      <c r="J49" s="50">
-        <v>7.5</v>
-      </c>
-      <c r="K49" s="50">
-        <v>7</v>
-      </c>
-      <c r="L49" s="50">
-        <v>7</v>
-      </c>
-      <c r="M49" s="50">
-        <v>7</v>
-      </c>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="50"/>
       <c r="N49" s="61"/>
       <c r="O49" s="52"/>
       <c r="P49" s="53"/>
@@ -6111,40 +5477,18 @@
     </row>
     <row r="50" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="55">
-        <v>28</v>
-      </c>
-      <c r="C50" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="D50" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="E50" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="F50" s="48">
-        <v>3</v>
-      </c>
-      <c r="G50" s="47">
-        <v>2.5</v>
-      </c>
-      <c r="H50" s="47">
-        <v>4.7</v>
-      </c>
+      <c r="B50" s="55"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
       <c r="I50" s="49"/>
-      <c r="J50" s="50">
-        <v>7</v>
-      </c>
-      <c r="K50" s="50">
-        <v>7</v>
-      </c>
-      <c r="L50" s="50">
-        <v>4</v>
-      </c>
-      <c r="M50" s="50">
-        <v>8</v>
-      </c>
+      <c r="J50" s="50"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="50"/>
+      <c r="M50" s="50"/>
       <c r="N50" s="61"/>
       <c r="O50" s="52"/>
       <c r="P50" s="53"/>
@@ -6199,40 +5543,18 @@
     </row>
     <row r="51" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="45">
-        <v>29</v>
-      </c>
-      <c r="C51" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="E51" s="47">
-        <v>4</v>
-      </c>
-      <c r="F51" s="48">
-        <v>4</v>
-      </c>
-      <c r="G51" s="47">
-        <v>3</v>
-      </c>
-      <c r="H51" s="47">
-        <v>4</v>
-      </c>
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
       <c r="I51" s="56"/>
-      <c r="J51" s="50">
-        <v>8</v>
-      </c>
-      <c r="K51" s="50">
-        <v>8</v>
-      </c>
-      <c r="L51" s="50">
-        <v>8</v>
-      </c>
-      <c r="M51" s="50">
-        <v>6</v>
-      </c>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
       <c r="N51" s="61"/>
       <c r="O51" s="52"/>
       <c r="P51" s="53"/>
@@ -6287,40 +5609,18 @@
     </row>
     <row r="52" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="55">
-        <v>30</v>
-      </c>
-      <c r="C52" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="D52" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="E52" s="47">
-        <v>3.6</v>
-      </c>
-      <c r="F52" s="48">
-        <v>3.2</v>
-      </c>
-      <c r="G52" s="47">
-        <v>3</v>
-      </c>
-      <c r="H52" s="47">
-        <v>6.4</v>
-      </c>
+      <c r="B52" s="55"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
       <c r="I52" s="49"/>
-      <c r="J52" s="50">
-        <v>8</v>
-      </c>
-      <c r="K52" s="50">
-        <v>8</v>
-      </c>
-      <c r="L52" s="50">
-        <v>8</v>
-      </c>
-      <c r="M52" s="50">
-        <v>8</v>
-      </c>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="50"/>
       <c r="N52" s="61"/>
       <c r="O52" s="52"/>
       <c r="P52" s="53"/>
@@ -6375,40 +5675,18 @@
     </row>
     <row r="53" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="45">
-        <v>31</v>
-      </c>
-      <c r="C53" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="D53" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E53" s="47">
-        <v>4</v>
-      </c>
-      <c r="F53" s="48">
-        <v>3</v>
-      </c>
-      <c r="G53" s="47">
-        <v>3</v>
-      </c>
-      <c r="H53" s="47">
-        <v>5.0999999999999996</v>
-      </c>
+      <c r="B53" s="45"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
       <c r="I53" s="56"/>
-      <c r="J53" s="50">
-        <v>7</v>
-      </c>
-      <c r="K53" s="50">
-        <v>7</v>
-      </c>
-      <c r="L53" s="50">
-        <v>5</v>
-      </c>
-      <c r="M53" s="50">
-        <v>8</v>
-      </c>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="50"/>
       <c r="N53" s="61"/>
       <c r="O53" s="52"/>
       <c r="P53" s="53"/>
@@ -6463,40 +5741,18 @@
     </row>
     <row r="54" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="55">
-        <v>32</v>
-      </c>
-      <c r="C54" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="D54" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="E54" s="47">
-        <v>4.5</v>
-      </c>
-      <c r="F54" s="48">
-        <v>3</v>
-      </c>
-      <c r="G54" s="47">
-        <v>2.5</v>
-      </c>
-      <c r="H54" s="47">
-        <v>6.6</v>
-      </c>
+      <c r="B54" s="55"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
       <c r="I54" s="62"/>
-      <c r="J54" s="50">
-        <v>7</v>
-      </c>
-      <c r="K54" s="50">
-        <v>6</v>
-      </c>
-      <c r="L54" s="50">
-        <v>5</v>
-      </c>
-      <c r="M54" s="50">
-        <v>6.5</v>
-      </c>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="50"/>
+      <c r="M54" s="50"/>
       <c r="N54" s="61"/>
       <c r="O54" s="52"/>
       <c r="P54" s="53"/>
@@ -6551,40 +5807,18 @@
     </row>
     <row r="55" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="45">
-        <v>33</v>
-      </c>
-      <c r="C55" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="D55" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="E55" s="47">
-        <v>4.5</v>
-      </c>
-      <c r="F55" s="48">
-        <v>3</v>
-      </c>
-      <c r="G55" s="47">
-        <v>2.5</v>
-      </c>
-      <c r="H55" s="47">
-        <v>6.1</v>
-      </c>
+      <c r="B55" s="45"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
       <c r="I55" s="56"/>
-      <c r="J55" s="50">
-        <v>6.5</v>
-      </c>
-      <c r="K55" s="50">
-        <v>5.5</v>
-      </c>
-      <c r="L55" s="50">
-        <v>0</v>
-      </c>
-      <c r="M55" s="50">
-        <v>8</v>
-      </c>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="50"/>
       <c r="N55" s="61"/>
       <c r="O55" s="52"/>
       <c r="P55" s="53"/>
@@ -6639,40 +5873,18 @@
     </row>
     <row r="56" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="55">
-        <v>34</v>
-      </c>
-      <c r="C56" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="E56" s="47">
-        <v>2.7</v>
-      </c>
-      <c r="F56" s="48">
-        <v>0</v>
-      </c>
-      <c r="G56" s="47">
-        <v>1.5</v>
-      </c>
-      <c r="H56" s="47">
-        <v>0.5</v>
-      </c>
+      <c r="B56" s="55"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
       <c r="I56" s="49"/>
-      <c r="J56" s="50">
-        <v>0</v>
-      </c>
-      <c r="K56" s="50">
-        <v>0</v>
-      </c>
-      <c r="L56" s="50">
-        <v>2</v>
-      </c>
-      <c r="M56" s="50">
-        <v>0</v>
-      </c>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="50"/>
+      <c r="M56" s="50"/>
       <c r="N56" s="61"/>
       <c r="O56" s="52"/>
       <c r="P56" s="53"/>
@@ -6727,40 +5939,18 @@
     </row>
     <row r="57" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="45">
-        <v>35</v>
-      </c>
-      <c r="C57" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="D57" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="E57" s="47">
-        <v>3</v>
-      </c>
-      <c r="F57" s="48">
-        <v>3</v>
-      </c>
-      <c r="G57" s="47">
-        <v>3</v>
-      </c>
-      <c r="H57" s="47">
-        <v>5.7</v>
-      </c>
+      <c r="B57" s="45"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
       <c r="I57" s="56"/>
-      <c r="J57" s="50">
-        <v>7</v>
-      </c>
-      <c r="K57" s="50">
-        <v>7</v>
-      </c>
-      <c r="L57" s="50">
-        <v>6.5</v>
-      </c>
-      <c r="M57" s="50">
-        <v>6</v>
-      </c>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="50"/>
       <c r="N57" s="61"/>
       <c r="O57" s="52"/>
       <c r="P57" s="53"/>
@@ -6815,40 +6005,18 @@
     </row>
     <row r="58" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="55">
-        <v>36</v>
-      </c>
-      <c r="C58" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="D58" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="E58" s="47">
-        <v>3</v>
-      </c>
-      <c r="F58" s="47">
-        <v>3</v>
-      </c>
-      <c r="G58" s="47">
-        <v>2</v>
-      </c>
-      <c r="H58" s="47">
-        <v>6</v>
-      </c>
+      <c r="B58" s="55"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
       <c r="I58" s="49"/>
-      <c r="J58" s="50">
-        <v>5</v>
-      </c>
-      <c r="K58" s="50">
-        <v>5</v>
-      </c>
-      <c r="L58" s="50">
-        <v>4</v>
-      </c>
-      <c r="M58" s="50">
-        <v>5</v>
-      </c>
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="50"/>
+      <c r="M58" s="50"/>
       <c r="N58" s="61"/>
       <c r="O58" s="52"/>
       <c r="P58" s="53"/>
@@ -6903,40 +6071,18 @@
     </row>
     <row r="59" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="45">
-        <v>37</v>
-      </c>
-      <c r="C59" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="D59" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="E59" s="47">
-        <v>3</v>
-      </c>
-      <c r="F59" s="47">
-        <v>2.5</v>
-      </c>
-      <c r="G59" s="47">
-        <v>2.5</v>
-      </c>
-      <c r="H59" s="47">
-        <v>4</v>
-      </c>
+      <c r="B59" s="45"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
       <c r="I59" s="63"/>
-      <c r="J59" s="50">
-        <v>6.5</v>
-      </c>
-      <c r="K59" s="50">
-        <v>6</v>
-      </c>
-      <c r="L59" s="50">
-        <v>6</v>
-      </c>
-      <c r="M59" s="50">
-        <v>6</v>
-      </c>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="50"/>
+      <c r="M59" s="50"/>
       <c r="N59" s="61"/>
       <c r="O59" s="52"/>
       <c r="P59" s="53"/>
@@ -6991,40 +6137,18 @@
     </row>
     <row r="60" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="55">
-        <v>38</v>
-      </c>
-      <c r="C60" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="D60" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="E60" s="47">
-        <v>3</v>
-      </c>
-      <c r="F60" s="47">
-        <v>3</v>
-      </c>
-      <c r="G60" s="47">
-        <v>2.5</v>
-      </c>
-      <c r="H60" s="47">
-        <v>6.2</v>
-      </c>
+      <c r="B60" s="55"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
       <c r="I60" s="63"/>
-      <c r="J60" s="50">
-        <v>7</v>
-      </c>
-      <c r="K60" s="50">
-        <v>5</v>
-      </c>
-      <c r="L60" s="50">
-        <v>6</v>
-      </c>
-      <c r="M60" s="50">
-        <v>7</v>
-      </c>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="50"/>
+      <c r="M60" s="50"/>
       <c r="N60" s="61"/>
       <c r="O60" s="52"/>
       <c r="P60" s="53"/>
@@ -7079,40 +6203,18 @@
     </row>
     <row r="61" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="45">
-        <v>39</v>
-      </c>
-      <c r="C61" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="D61" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="E61" s="47">
-        <v>3</v>
-      </c>
-      <c r="F61" s="47">
-        <v>3</v>
-      </c>
-      <c r="G61" s="47">
-        <v>3</v>
-      </c>
-      <c r="H61" s="47">
-        <v>6.6</v>
-      </c>
+      <c r="B61" s="45"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
       <c r="I61" s="63"/>
-      <c r="J61" s="50">
-        <v>7</v>
-      </c>
-      <c r="K61" s="50">
-        <v>6</v>
-      </c>
-      <c r="L61" s="50">
-        <v>6</v>
-      </c>
-      <c r="M61" s="50">
-        <v>9</v>
-      </c>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="50"/>
       <c r="N61" s="30"/>
       <c r="O61" s="52"/>
       <c r="P61" s="53"/>
@@ -7167,40 +6269,18 @@
     </row>
     <row r="62" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="55">
-        <v>40</v>
-      </c>
-      <c r="C62" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="D62" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="E62" s="47">
-        <v>2</v>
-      </c>
-      <c r="F62" s="47">
-        <v>2.4</v>
-      </c>
-      <c r="G62" s="47">
-        <v>3</v>
-      </c>
-      <c r="H62" s="47">
-        <v>5</v>
-      </c>
+      <c r="B62" s="55"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
       <c r="I62" s="63"/>
-      <c r="J62" s="50">
-        <v>6</v>
-      </c>
-      <c r="K62" s="50">
-        <v>5</v>
-      </c>
-      <c r="L62" s="50">
-        <v>6</v>
-      </c>
-      <c r="M62" s="50">
-        <v>7</v>
-      </c>
+      <c r="J62" s="50"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="50"/>
+      <c r="M62" s="50"/>
       <c r="N62" s="30"/>
       <c r="O62" s="52"/>
       <c r="P62" s="53"/>
@@ -7255,40 +6335,18 @@
     </row>
     <row r="63" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="45">
-        <v>41</v>
-      </c>
-      <c r="C63" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="D63" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="E63" s="47">
-        <v>4</v>
-      </c>
-      <c r="F63" s="47">
-        <v>3</v>
-      </c>
-      <c r="G63" s="47">
-        <v>3</v>
-      </c>
-      <c r="H63" s="47">
-        <v>6.6</v>
-      </c>
+      <c r="B63" s="45"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
       <c r="I63" s="63"/>
-      <c r="J63" s="50">
-        <v>7</v>
-      </c>
-      <c r="K63" s="50">
-        <v>6.5</v>
-      </c>
-      <c r="L63" s="50">
-        <v>6</v>
-      </c>
-      <c r="M63" s="50">
-        <v>10</v>
-      </c>
+      <c r="J63" s="50"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="50"/>
+      <c r="M63" s="50"/>
       <c r="N63" s="61"/>
       <c r="O63" s="52"/>
       <c r="P63" s="53"/>
@@ -7343,40 +6401,18 @@
     </row>
     <row r="64" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="55">
-        <v>42</v>
-      </c>
-      <c r="C64" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="D64" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="E64" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="F64" s="47">
-        <v>3</v>
-      </c>
-      <c r="G64" s="47">
-        <v>3</v>
-      </c>
-      <c r="H64" s="47">
-        <v>7.6</v>
-      </c>
+      <c r="B64" s="55"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="47"/>
       <c r="I64" s="63"/>
-      <c r="J64" s="50">
-        <v>7</v>
-      </c>
-      <c r="K64" s="50">
-        <v>6</v>
-      </c>
-      <c r="L64" s="50">
-        <v>7.5</v>
-      </c>
-      <c r="M64" s="50">
-        <v>10</v>
-      </c>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="50"/>
+      <c r="M64" s="50"/>
       <c r="N64" s="61"/>
       <c r="O64" s="64"/>
       <c r="P64" s="53"/>
@@ -7431,40 +6467,18 @@
     </row>
     <row r="65" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="45">
-        <v>43</v>
-      </c>
-      <c r="C65" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D65" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="E65" s="47">
-        <v>3</v>
-      </c>
-      <c r="F65" s="47">
-        <v>3</v>
-      </c>
-      <c r="G65" s="47">
-        <v>3</v>
-      </c>
-      <c r="H65" s="47">
-        <v>5.0999999999999996</v>
-      </c>
+      <c r="B65" s="45"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="47"/>
       <c r="I65" s="65"/>
-      <c r="J65" s="50">
-        <v>6.5</v>
-      </c>
-      <c r="K65" s="50">
-        <v>5</v>
-      </c>
-      <c r="L65" s="50">
-        <v>4</v>
-      </c>
-      <c r="M65" s="50">
-        <v>9</v>
-      </c>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
+      <c r="L65" s="50"/>
+      <c r="M65" s="50"/>
       <c r="N65" s="66"/>
       <c r="O65" s="10"/>
       <c r="P65" s="53"/>
@@ -7519,40 +6533,18 @@
     </row>
     <row r="66" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="55">
-        <v>44</v>
-      </c>
-      <c r="C66" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="D66" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="E66" s="47">
-        <v>5</v>
-      </c>
-      <c r="F66" s="47">
-        <v>5</v>
-      </c>
-      <c r="G66" s="47">
-        <v>5</v>
-      </c>
-      <c r="H66" s="47">
-        <v>9</v>
-      </c>
+      <c r="B66" s="55"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="47"/>
       <c r="I66" s="63"/>
-      <c r="J66" s="50">
-        <v>8.5</v>
-      </c>
-      <c r="K66" s="50">
-        <v>9</v>
-      </c>
-      <c r="L66" s="50">
-        <v>8.5</v>
-      </c>
-      <c r="M66" s="50">
-        <v>10</v>
-      </c>
+      <c r="J66" s="50"/>
+      <c r="K66" s="50"/>
+      <c r="L66" s="50"/>
+      <c r="M66" s="50"/>
       <c r="N66" s="67"/>
       <c r="O66" s="10"/>
       <c r="P66" s="53"/>
@@ -7607,40 +6599,18 @@
     </row>
     <row r="67" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="45">
-        <v>45</v>
-      </c>
-      <c r="C67" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="D67" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="E67" s="47">
-        <v>3</v>
-      </c>
-      <c r="F67" s="47">
-        <v>3</v>
-      </c>
-      <c r="G67" s="47">
-        <v>3</v>
-      </c>
-      <c r="H67" s="47">
-        <v>2.6</v>
-      </c>
+      <c r="B67" s="45"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="47"/>
       <c r="I67" s="63"/>
-      <c r="J67" s="50">
-        <v>6</v>
-      </c>
-      <c r="K67" s="50">
-        <v>5</v>
-      </c>
-      <c r="L67" s="50">
-        <v>7</v>
-      </c>
-      <c r="M67" s="50">
-        <v>6.5</v>
-      </c>
+      <c r="J67" s="50"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="50"/>
+      <c r="M67" s="50"/>
       <c r="N67" s="67"/>
       <c r="O67" s="10"/>
       <c r="P67" s="53"/>
@@ -7695,40 +6665,18 @@
     </row>
     <row r="68" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="55">
-        <v>46</v>
-      </c>
-      <c r="C68" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="D68" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="E68" s="47">
-        <v>3</v>
-      </c>
-      <c r="F68" s="47">
-        <v>1</v>
-      </c>
-      <c r="G68" s="47">
-        <v>3</v>
-      </c>
-      <c r="H68" s="47">
-        <v>2.4</v>
-      </c>
+      <c r="B68" s="55"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
       <c r="I68" s="63"/>
-      <c r="J68" s="50">
-        <v>6</v>
-      </c>
-      <c r="K68" s="50">
-        <v>4</v>
-      </c>
-      <c r="L68" s="50">
-        <v>6</v>
-      </c>
-      <c r="M68" s="50">
-        <v>7</v>
-      </c>
+      <c r="J68" s="50"/>
+      <c r="K68" s="50"/>
+      <c r="L68" s="50"/>
+      <c r="M68" s="50"/>
       <c r="N68" s="67"/>
       <c r="O68" s="10"/>
       <c r="P68" s="53"/>
@@ -7783,40 +6731,18 @@
     </row>
     <row r="69" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="45">
-        <v>47</v>
-      </c>
-      <c r="C69" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="D69" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="E69" s="47">
-        <v>3</v>
-      </c>
-      <c r="F69" s="47">
-        <v>0</v>
-      </c>
-      <c r="G69" s="47">
-        <v>3</v>
-      </c>
-      <c r="H69" s="47">
-        <v>3.4</v>
-      </c>
+      <c r="B69" s="45"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
       <c r="I69" s="63"/>
-      <c r="J69" s="50">
-        <v>6</v>
-      </c>
-      <c r="K69" s="50">
-        <v>4</v>
-      </c>
-      <c r="L69" s="50">
-        <v>5</v>
-      </c>
-      <c r="M69" s="50">
-        <v>6</v>
-      </c>
+      <c r="J69" s="50"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="50"/>
+      <c r="M69" s="50"/>
       <c r="N69" s="67"/>
       <c r="O69" s="10"/>
       <c r="P69" s="53"/>
@@ -7871,40 +6797,18 @@
     </row>
     <row r="70" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="55">
-        <v>48</v>
-      </c>
-      <c r="C70" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="D70" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="E70" s="47">
-        <v>4</v>
-      </c>
-      <c r="F70" s="47">
-        <v>3</v>
-      </c>
-      <c r="G70" s="47">
-        <v>3</v>
-      </c>
-      <c r="H70" s="47">
-        <v>7.1</v>
-      </c>
+      <c r="B70" s="55"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="47"/>
       <c r="I70" s="63"/>
-      <c r="J70" s="50">
-        <v>5.5</v>
-      </c>
-      <c r="K70" s="50">
-        <v>5</v>
-      </c>
-      <c r="L70" s="50">
-        <v>5.5</v>
-      </c>
-      <c r="M70" s="50">
-        <v>0</v>
-      </c>
+      <c r="J70" s="50"/>
+      <c r="K70" s="50"/>
+      <c r="L70" s="50"/>
+      <c r="M70" s="50"/>
       <c r="N70" s="67"/>
       <c r="O70" s="10"/>
       <c r="P70" s="53"/>
@@ -7959,40 +6863,18 @@
     </row>
     <row r="71" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="45">
-        <v>49</v>
-      </c>
-      <c r="C71" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="D71" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="E71" s="47">
-        <v>3</v>
-      </c>
-      <c r="F71" s="47">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G71" s="47">
-        <v>3</v>
-      </c>
-      <c r="H71" s="47">
-        <v>5</v>
-      </c>
+      <c r="B71" s="45"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
       <c r="I71" s="63"/>
-      <c r="J71" s="50">
-        <v>5</v>
-      </c>
-      <c r="K71" s="50">
-        <v>3.5</v>
-      </c>
-      <c r="L71" s="50">
-        <v>5</v>
-      </c>
-      <c r="M71" s="50">
-        <v>0</v>
-      </c>
+      <c r="J71" s="50"/>
+      <c r="K71" s="50"/>
+      <c r="L71" s="50"/>
+      <c r="M71" s="50"/>
       <c r="N71" s="67"/>
       <c r="O71" s="10"/>
       <c r="P71" s="53"/>
@@ -8047,40 +6929,18 @@
     </row>
     <row r="72" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="55">
-        <v>50</v>
-      </c>
-      <c r="C72" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="D72" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="E72" s="47">
-        <v>3</v>
-      </c>
-      <c r="F72" s="47">
-        <v>2.4</v>
-      </c>
-      <c r="G72" s="47">
-        <v>3</v>
-      </c>
-      <c r="H72" s="47">
-        <v>3</v>
-      </c>
+      <c r="B72" s="55"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="47"/>
       <c r="I72" s="63"/>
-      <c r="J72" s="50">
-        <v>6</v>
-      </c>
-      <c r="K72" s="50">
-        <v>5</v>
-      </c>
-      <c r="L72" s="50">
-        <v>6</v>
-      </c>
-      <c r="M72" s="50">
-        <v>5</v>
-      </c>
+      <c r="J72" s="50"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="50"/>
       <c r="N72" s="67"/>
       <c r="O72" s="10"/>
       <c r="P72" s="53"/>
@@ -8135,40 +6995,18 @@
     </row>
     <row r="73" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="45">
-        <v>51</v>
-      </c>
-      <c r="C73" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="D73" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E73" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="F73" s="47">
-        <v>3</v>
-      </c>
-      <c r="G73" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="H73" s="47">
-        <v>6.4</v>
-      </c>
+      <c r="B73" s="45"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="47"/>
       <c r="I73" s="63"/>
-      <c r="J73" s="50">
-        <v>7</v>
-      </c>
-      <c r="K73" s="50">
-        <v>6.5</v>
-      </c>
-      <c r="L73" s="50">
-        <v>6</v>
-      </c>
-      <c r="M73" s="50">
-        <v>10</v>
-      </c>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="50"/>
       <c r="N73" s="67"/>
       <c r="O73" s="10"/>
       <c r="P73" s="53"/>
@@ -8223,40 +7061,18 @@
     </row>
     <row r="74" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="55">
-        <v>52</v>
-      </c>
-      <c r="C74" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="D74" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="E74" s="47">
-        <v>3</v>
-      </c>
-      <c r="F74" s="47">
-        <v>2.6</v>
-      </c>
-      <c r="G74" s="47">
-        <v>3</v>
-      </c>
-      <c r="H74" s="47">
-        <v>3</v>
-      </c>
+      <c r="B74" s="55"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="47"/>
       <c r="I74" s="63"/>
-      <c r="J74" s="50">
-        <v>5</v>
-      </c>
-      <c r="K74" s="50">
-        <v>3</v>
-      </c>
-      <c r="L74" s="50">
-        <v>5</v>
-      </c>
-      <c r="M74" s="50">
-        <v>2</v>
-      </c>
+      <c r="J74" s="50"/>
+      <c r="K74" s="50"/>
+      <c r="L74" s="50"/>
+      <c r="M74" s="50"/>
       <c r="N74" s="67"/>
       <c r="O74" s="10"/>
       <c r="P74" s="53"/>
@@ -8311,40 +7127,18 @@
     </row>
     <row r="75" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="45">
-        <v>53</v>
-      </c>
-      <c r="C75" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="D75" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="E75" s="47">
-        <v>3</v>
-      </c>
-      <c r="F75" s="47">
-        <v>2.5</v>
-      </c>
-      <c r="G75" s="47">
-        <v>3</v>
-      </c>
-      <c r="H75" s="47">
-        <v>3</v>
-      </c>
+      <c r="B75" s="45"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="47"/>
       <c r="I75" s="63"/>
-      <c r="J75" s="50">
-        <v>4</v>
-      </c>
-      <c r="K75" s="50">
-        <v>3</v>
-      </c>
-      <c r="L75" s="50">
-        <v>0</v>
-      </c>
-      <c r="M75" s="50">
-        <v>0.5</v>
-      </c>
+      <c r="J75" s="50"/>
+      <c r="K75" s="50"/>
+      <c r="L75" s="50"/>
+      <c r="M75" s="50"/>
       <c r="N75" s="67"/>
       <c r="O75" s="10"/>
       <c r="P75" s="53"/>
@@ -8399,40 +7193,18 @@
     </row>
     <row r="76" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="55">
-        <v>54</v>
-      </c>
-      <c r="C76" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="D76" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="E76" s="47">
-        <v>3</v>
-      </c>
-      <c r="F76" s="47">
-        <v>2.6</v>
-      </c>
-      <c r="G76" s="47">
-        <v>3</v>
-      </c>
-      <c r="H76" s="47">
-        <v>5</v>
-      </c>
+      <c r="B76" s="55"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="47"/>
+      <c r="H76" s="47"/>
       <c r="I76" s="63"/>
-      <c r="J76" s="50">
-        <v>7</v>
-      </c>
-      <c r="K76" s="50">
-        <v>7.5</v>
-      </c>
-      <c r="L76" s="50">
-        <v>8.5</v>
-      </c>
-      <c r="M76" s="50">
-        <v>10</v>
-      </c>
+      <c r="J76" s="50"/>
+      <c r="K76" s="50"/>
+      <c r="L76" s="50"/>
+      <c r="M76" s="50"/>
       <c r="N76" s="67"/>
       <c r="O76" s="10"/>
       <c r="P76" s="53"/>
@@ -8487,40 +7259,18 @@
     </row>
     <row r="77" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="45">
-        <v>55</v>
-      </c>
-      <c r="C77" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="D77" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="E77" s="47">
-        <v>5</v>
-      </c>
-      <c r="F77" s="47">
-        <v>4</v>
-      </c>
-      <c r="G77" s="47">
-        <v>5</v>
-      </c>
-      <c r="H77" s="47">
-        <v>8.6</v>
-      </c>
+      <c r="B77" s="45"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="47"/>
       <c r="I77" s="63"/>
-      <c r="J77" s="50">
-        <v>7.5</v>
-      </c>
-      <c r="K77" s="50">
-        <v>8</v>
-      </c>
-      <c r="L77" s="50">
-        <v>7</v>
-      </c>
-      <c r="M77" s="50">
-        <v>8.5</v>
-      </c>
+      <c r="J77" s="50"/>
+      <c r="K77" s="50"/>
+      <c r="L77" s="50"/>
+      <c r="M77" s="50"/>
       <c r="N77" s="67"/>
       <c r="O77" s="10"/>
       <c r="P77" s="53"/>
@@ -8575,40 +7325,18 @@
     </row>
     <row r="78" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="55">
-        <v>56</v>
-      </c>
-      <c r="C78" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="D78" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="E78" s="47">
-        <v>3</v>
-      </c>
-      <c r="F78" s="47">
-        <v>3</v>
-      </c>
-      <c r="G78" s="47">
-        <v>3</v>
-      </c>
-      <c r="H78" s="47">
-        <v>3.4</v>
-      </c>
+      <c r="B78" s="55"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="47"/>
+      <c r="H78" s="47"/>
       <c r="I78" s="63"/>
-      <c r="J78" s="50">
-        <v>8</v>
-      </c>
-      <c r="K78" s="50">
-        <v>8</v>
-      </c>
-      <c r="L78" s="50">
-        <v>8</v>
-      </c>
-      <c r="M78" s="50">
-        <v>8</v>
-      </c>
+      <c r="J78" s="50"/>
+      <c r="K78" s="50"/>
+      <c r="L78" s="50"/>
+      <c r="M78" s="50"/>
       <c r="N78" s="67"/>
       <c r="O78" s="10"/>
       <c r="P78" s="53"/>
@@ -8663,40 +7391,18 @@
     </row>
     <row r="79" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="45">
-        <v>57</v>
-      </c>
-      <c r="C79" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="D79" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="E79" s="47">
-        <v>3.2</v>
-      </c>
-      <c r="F79" s="47">
-        <v>3</v>
-      </c>
-      <c r="G79" s="47">
-        <v>3</v>
-      </c>
-      <c r="H79" s="47">
-        <v>4</v>
-      </c>
+      <c r="B79" s="45"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="47"/>
       <c r="I79" s="63"/>
-      <c r="J79" s="50">
-        <v>6.5</v>
-      </c>
-      <c r="K79" s="50">
-        <v>5</v>
-      </c>
-      <c r="L79" s="50">
-        <v>5.5</v>
-      </c>
-      <c r="M79" s="50">
-        <v>5</v>
-      </c>
+      <c r="J79" s="50"/>
+      <c r="K79" s="50"/>
+      <c r="L79" s="50"/>
+      <c r="M79" s="50"/>
       <c r="N79" s="67"/>
       <c r="O79" s="10"/>
       <c r="P79" s="53"/>
@@ -8751,40 +7457,18 @@
     </row>
     <row r="80" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="55">
-        <v>58</v>
-      </c>
-      <c r="C80" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="D80" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="E80" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="F80" s="47">
-        <v>3</v>
-      </c>
-      <c r="G80" s="47">
-        <v>4</v>
-      </c>
-      <c r="H80" s="47">
-        <v>6.6</v>
-      </c>
+      <c r="B80" s="55"/>
+      <c r="C80" s="46"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="47"/>
+      <c r="H80" s="47"/>
       <c r="I80" s="63"/>
-      <c r="J80" s="50">
-        <v>7</v>
-      </c>
-      <c r="K80" s="50">
-        <v>7</v>
-      </c>
-      <c r="L80" s="50">
-        <v>8</v>
-      </c>
-      <c r="M80" s="50">
-        <v>9</v>
-      </c>
+      <c r="J80" s="50"/>
+      <c r="K80" s="50"/>
+      <c r="L80" s="50"/>
+      <c r="M80" s="50"/>
       <c r="N80" s="67"/>
       <c r="O80" s="10"/>
       <c r="P80" s="53"/>
@@ -8839,40 +7523,18 @@
     </row>
     <row r="81" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="45">
-        <v>59</v>
-      </c>
-      <c r="C81" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="D81" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="E81" s="47">
-        <v>3</v>
-      </c>
-      <c r="F81" s="47">
-        <v>3</v>
-      </c>
-      <c r="G81" s="47">
-        <v>3</v>
-      </c>
-      <c r="H81" s="47">
-        <v>5.6</v>
-      </c>
+      <c r="B81" s="45"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="47"/>
       <c r="I81" s="63"/>
-      <c r="J81" s="50">
-        <v>8</v>
-      </c>
-      <c r="K81" s="50">
-        <v>7</v>
-      </c>
-      <c r="L81" s="50">
-        <v>7</v>
-      </c>
-      <c r="M81" s="50">
-        <v>9</v>
-      </c>
+      <c r="J81" s="50"/>
+      <c r="K81" s="50"/>
+      <c r="L81" s="50"/>
+      <c r="M81" s="50"/>
       <c r="N81" s="67"/>
       <c r="O81" s="10"/>
       <c r="P81" s="53"/>
@@ -8927,40 +7589,18 @@
     </row>
     <row r="82" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="55">
-        <v>60</v>
-      </c>
-      <c r="C82" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="D82" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E82" s="47">
-        <v>4</v>
-      </c>
-      <c r="F82" s="47">
-        <v>3</v>
-      </c>
-      <c r="G82" s="47">
-        <v>4</v>
-      </c>
-      <c r="H82" s="47">
-        <v>6.5</v>
-      </c>
+      <c r="B82" s="55"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="47"/>
+      <c r="H82" s="47"/>
       <c r="I82" s="63"/>
-      <c r="J82" s="50">
-        <v>6</v>
-      </c>
-      <c r="K82" s="50">
-        <v>6</v>
-      </c>
-      <c r="L82" s="50">
-        <v>7</v>
-      </c>
-      <c r="M82" s="50">
-        <v>3</v>
-      </c>
+      <c r="J82" s="50"/>
+      <c r="K82" s="50"/>
+      <c r="L82" s="50"/>
+      <c r="M82" s="50"/>
       <c r="N82" s="67"/>
       <c r="O82" s="10"/>
       <c r="P82" s="53"/>
@@ -9015,40 +7655,18 @@
     </row>
     <row r="83" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="45">
-        <v>61</v>
-      </c>
-      <c r="C83" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="D83" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="E83" s="47">
-        <v>3</v>
-      </c>
-      <c r="F83" s="47">
-        <v>3.1</v>
-      </c>
-      <c r="G83" s="47">
-        <v>3</v>
-      </c>
-      <c r="H83" s="47">
-        <v>5</v>
-      </c>
+      <c r="B83" s="45"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="47"/>
       <c r="I83" s="63"/>
-      <c r="J83" s="50">
-        <v>5.5</v>
-      </c>
-      <c r="K83" s="50">
-        <v>5</v>
-      </c>
-      <c r="L83" s="50">
-        <v>2</v>
-      </c>
-      <c r="M83" s="50">
-        <v>7</v>
-      </c>
+      <c r="J83" s="50"/>
+      <c r="K83" s="50"/>
+      <c r="L83" s="50"/>
+      <c r="M83" s="50"/>
       <c r="N83" s="67"/>
       <c r="O83" s="10"/>
       <c r="P83" s="53"/>
@@ -9103,40 +7721,18 @@
     </row>
     <row r="84" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="55">
-        <v>62</v>
-      </c>
-      <c r="C84" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="D84" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="E84" s="47">
-        <v>3</v>
-      </c>
-      <c r="F84" s="47">
-        <v>3</v>
-      </c>
-      <c r="G84" s="47">
-        <v>3</v>
-      </c>
-      <c r="H84" s="47">
-        <v>6.2</v>
-      </c>
+      <c r="B84" s="55"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="47"/>
+      <c r="H84" s="47"/>
       <c r="I84" s="63"/>
-      <c r="J84" s="50">
-        <v>8</v>
-      </c>
-      <c r="K84" s="50">
-        <v>7.5</v>
-      </c>
-      <c r="L84" s="50">
-        <v>7.5</v>
-      </c>
-      <c r="M84" s="50">
-        <v>8.5</v>
-      </c>
+      <c r="J84" s="50"/>
+      <c r="K84" s="50"/>
+      <c r="L84" s="50"/>
+      <c r="M84" s="50"/>
       <c r="N84" s="67"/>
       <c r="O84" s="10"/>
       <c r="P84" s="53"/>
@@ -9191,40 +7787,18 @@
     </row>
     <row r="85" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="45">
-        <v>63</v>
-      </c>
-      <c r="C85" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="D85" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="E85" s="47">
-        <v>4</v>
-      </c>
-      <c r="F85" s="47">
-        <v>5</v>
-      </c>
-      <c r="G85" s="47">
-        <v>1</v>
-      </c>
-      <c r="H85" s="47">
-        <v>4.5999999999999996</v>
-      </c>
+      <c r="B85" s="45"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="47"/>
+      <c r="H85" s="47"/>
       <c r="I85" s="63"/>
-      <c r="J85" s="50">
-        <v>7.5</v>
-      </c>
-      <c r="K85" s="50">
-        <v>8</v>
-      </c>
-      <c r="L85" s="50">
-        <v>8</v>
-      </c>
-      <c r="M85" s="50">
-        <v>7.5</v>
-      </c>
+      <c r="J85" s="50"/>
+      <c r="K85" s="50"/>
+      <c r="L85" s="50"/>
+      <c r="M85" s="50"/>
       <c r="N85" s="67"/>
       <c r="O85" s="10"/>
       <c r="P85" s="53"/>
@@ -9279,40 +7853,18 @@
     </row>
     <row r="86" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="55">
-        <v>64</v>
-      </c>
-      <c r="C86" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="D86" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="E86" s="47">
-        <v>4.5</v>
-      </c>
-      <c r="F86" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="G86" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="H86" s="47">
-        <v>6.5</v>
-      </c>
+      <c r="B86" s="55"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="47"/>
       <c r="I86" s="63"/>
-      <c r="J86" s="50">
-        <v>6</v>
-      </c>
-      <c r="K86" s="50">
-        <v>4</v>
-      </c>
-      <c r="L86" s="50">
-        <v>5</v>
-      </c>
-      <c r="M86" s="50">
-        <v>0</v>
-      </c>
+      <c r="J86" s="50"/>
+      <c r="K86" s="50"/>
+      <c r="L86" s="50"/>
+      <c r="M86" s="50"/>
       <c r="N86" s="67"/>
       <c r="O86" s="10"/>
       <c r="P86" s="53"/>
@@ -9367,40 +7919,18 @@
     </row>
     <row r="87" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="45">
-        <v>65</v>
-      </c>
-      <c r="C87" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="D87" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="E87" s="47">
-        <v>3</v>
-      </c>
-      <c r="F87" s="47">
-        <v>3.4</v>
-      </c>
-      <c r="G87" s="47">
-        <v>3</v>
-      </c>
-      <c r="H87" s="47">
-        <v>4</v>
-      </c>
+      <c r="B87" s="45"/>
+      <c r="C87" s="46"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="47"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="47"/>
       <c r="I87" s="63"/>
-      <c r="J87" s="50">
-        <v>7</v>
-      </c>
-      <c r="K87" s="50">
-        <v>6</v>
-      </c>
-      <c r="L87" s="50">
-        <v>7</v>
-      </c>
-      <c r="M87" s="50">
-        <v>8</v>
-      </c>
+      <c r="J87" s="50"/>
+      <c r="K87" s="50"/>
+      <c r="L87" s="50"/>
+      <c r="M87" s="50"/>
       <c r="N87" s="67"/>
       <c r="O87" s="10"/>
       <c r="P87" s="53"/>
@@ -9455,40 +7985,18 @@
     </row>
     <row r="88" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="55">
-        <v>66</v>
-      </c>
-      <c r="C88" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="D88" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="E88" s="47">
-        <v>3</v>
-      </c>
-      <c r="F88" s="47">
-        <v>2.5</v>
-      </c>
-      <c r="G88" s="47">
-        <v>0</v>
-      </c>
-      <c r="H88" s="47">
-        <v>5.5</v>
-      </c>
+      <c r="B88" s="55"/>
+      <c r="C88" s="46"/>
+      <c r="D88" s="46"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="47"/>
       <c r="I88" s="63"/>
-      <c r="J88" s="50">
-        <v>6</v>
-      </c>
-      <c r="K88" s="50">
-        <v>6</v>
-      </c>
-      <c r="L88" s="50">
-        <v>7</v>
-      </c>
-      <c r="M88" s="50">
-        <v>4</v>
-      </c>
+      <c r="J88" s="50"/>
+      <c r="K88" s="50"/>
+      <c r="L88" s="50"/>
+      <c r="M88" s="50"/>
       <c r="N88" s="67"/>
       <c r="O88" s="10"/>
       <c r="P88" s="53"/>
@@ -9543,40 +8051,18 @@
     </row>
     <row r="89" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="45">
-        <v>67</v>
-      </c>
-      <c r="C89" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="D89" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="E89" s="47">
-        <v>2.5</v>
-      </c>
-      <c r="F89" s="47">
-        <v>0</v>
-      </c>
-      <c r="G89" s="47">
-        <v>3.6</v>
-      </c>
-      <c r="H89" s="47">
-        <v>2</v>
-      </c>
+      <c r="B89" s="45"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="47"/>
       <c r="I89" s="63"/>
-      <c r="J89" s="50">
-        <v>6</v>
-      </c>
-      <c r="K89" s="50">
-        <v>6</v>
-      </c>
-      <c r="L89" s="50">
-        <v>7</v>
-      </c>
-      <c r="M89" s="50">
-        <v>6.5</v>
-      </c>
+      <c r="J89" s="50"/>
+      <c r="K89" s="50"/>
+      <c r="L89" s="50"/>
+      <c r="M89" s="50"/>
       <c r="N89" s="67"/>
       <c r="O89" s="10"/>
       <c r="P89" s="53"/>
@@ -9631,40 +8117,18 @@
     </row>
     <row r="90" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="55">
-        <v>68</v>
-      </c>
-      <c r="C90" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="D90" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="E90" s="47">
-        <v>3</v>
-      </c>
-      <c r="F90" s="47">
-        <v>2.6</v>
-      </c>
-      <c r="G90" s="47">
-        <v>3</v>
-      </c>
-      <c r="H90" s="47">
-        <v>5</v>
-      </c>
+      <c r="B90" s="55"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="47"/>
+      <c r="F90" s="47"/>
+      <c r="G90" s="47"/>
+      <c r="H90" s="47"/>
       <c r="I90" s="63"/>
-      <c r="J90" s="50">
-        <v>6</v>
-      </c>
-      <c r="K90" s="50">
-        <v>6</v>
-      </c>
-      <c r="L90" s="50">
-        <v>6.5</v>
-      </c>
-      <c r="M90" s="50">
-        <v>0</v>
-      </c>
+      <c r="J90" s="50"/>
+      <c r="K90" s="50"/>
+      <c r="L90" s="50"/>
+      <c r="M90" s="50"/>
       <c r="N90" s="67"/>
       <c r="O90" s="10"/>
       <c r="P90" s="53"/>
@@ -9719,40 +8183,18 @@
     </row>
     <row r="91" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="45">
-        <v>69</v>
-      </c>
-      <c r="C91" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="D91" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="E91" s="47">
-        <v>3</v>
-      </c>
-      <c r="F91" s="47">
-        <v>3</v>
-      </c>
-      <c r="G91" s="47">
-        <v>3</v>
-      </c>
-      <c r="H91" s="47">
-        <v>6.6</v>
-      </c>
+      <c r="B91" s="45"/>
+      <c r="C91" s="46"/>
+      <c r="D91" s="46"/>
+      <c r="E91" s="47"/>
+      <c r="F91" s="47"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="47"/>
       <c r="I91" s="63"/>
-      <c r="J91" s="50">
-        <v>8.5</v>
-      </c>
-      <c r="K91" s="50">
-        <v>3</v>
-      </c>
-      <c r="L91" s="50">
-        <v>8.5</v>
-      </c>
-      <c r="M91" s="50">
-        <v>5</v>
-      </c>
+      <c r="J91" s="50"/>
+      <c r="K91" s="50"/>
+      <c r="L91" s="50"/>
+      <c r="M91" s="50"/>
       <c r="N91" s="67"/>
       <c r="O91" s="10"/>
       <c r="P91" s="53"/>
@@ -9807,40 +8249,18 @@
     </row>
     <row r="92" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="55">
-        <v>70</v>
-      </c>
-      <c r="C92" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="D92" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="E92" s="47">
-        <v>4.5</v>
-      </c>
-      <c r="F92" s="47">
-        <v>4</v>
-      </c>
-      <c r="G92" s="47">
-        <v>3</v>
-      </c>
-      <c r="H92" s="47">
-        <v>5.5</v>
-      </c>
+      <c r="B92" s="55"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
       <c r="I92" s="63"/>
-      <c r="J92" s="50">
-        <v>5</v>
-      </c>
-      <c r="K92" s="50">
-        <v>6</v>
-      </c>
-      <c r="L92" s="50">
-        <v>5</v>
-      </c>
-      <c r="M92" s="50">
-        <v>2</v>
-      </c>
+      <c r="J92" s="50"/>
+      <c r="K92" s="50"/>
+      <c r="L92" s="50"/>
+      <c r="M92" s="50"/>
       <c r="N92" s="67"/>
       <c r="O92" s="10"/>
       <c r="P92" s="53"/>
@@ -9895,40 +8315,18 @@
     </row>
     <row r="93" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="45">
-        <v>71</v>
-      </c>
-      <c r="C93" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="D93" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="E93" s="47">
-        <v>4</v>
-      </c>
-      <c r="F93" s="47">
-        <v>4</v>
-      </c>
-      <c r="G93" s="47">
-        <v>3</v>
-      </c>
-      <c r="H93" s="47">
-        <v>6.1</v>
-      </c>
+      <c r="B93" s="45"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="47"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="47"/>
       <c r="I93" s="63"/>
-      <c r="J93" s="50">
-        <v>7</v>
-      </c>
-      <c r="K93" s="50">
-        <v>6</v>
-      </c>
-      <c r="L93" s="50">
-        <v>7</v>
-      </c>
-      <c r="M93" s="50">
-        <v>8.5</v>
-      </c>
+      <c r="J93" s="50"/>
+      <c r="K93" s="50"/>
+      <c r="L93" s="50"/>
+      <c r="M93" s="50"/>
       <c r="N93" s="67"/>
       <c r="O93" s="10"/>
       <c r="P93" s="53"/>
@@ -9983,40 +8381,18 @@
     </row>
     <row r="94" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="55">
-        <v>72</v>
-      </c>
-      <c r="C94" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="D94" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="E94" s="47">
-        <v>3</v>
-      </c>
-      <c r="F94" s="47">
-        <v>3</v>
-      </c>
-      <c r="G94" s="47">
-        <v>3</v>
-      </c>
-      <c r="H94" s="47">
-        <v>5.2</v>
-      </c>
+      <c r="B94" s="55"/>
+      <c r="C94" s="46"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="47"/>
+      <c r="H94" s="47"/>
       <c r="I94" s="63"/>
-      <c r="J94" s="50">
-        <v>7</v>
-      </c>
-      <c r="K94" s="50">
-        <v>5</v>
-      </c>
-      <c r="L94" s="50">
-        <v>7</v>
-      </c>
-      <c r="M94" s="50">
-        <v>7</v>
-      </c>
+      <c r="J94" s="50"/>
+      <c r="K94" s="50"/>
+      <c r="L94" s="50"/>
+      <c r="M94" s="50"/>
       <c r="N94" s="67"/>
       <c r="O94" s="10"/>
       <c r="P94" s="53"/>
@@ -10071,40 +8447,18 @@
     </row>
     <row r="95" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="45">
-        <v>73</v>
-      </c>
-      <c r="C95" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="D95" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="E95" s="48">
-        <v>0</v>
-      </c>
-      <c r="F95" s="48">
-        <v>0</v>
-      </c>
-      <c r="G95" s="48">
-        <v>0</v>
-      </c>
-      <c r="H95" s="48">
-        <v>0</v>
-      </c>
+      <c r="B95" s="45"/>
+      <c r="C95" s="46"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="48"/>
+      <c r="H95" s="48"/>
       <c r="I95" s="63"/>
-      <c r="J95" s="68">
-        <v>5</v>
-      </c>
-      <c r="K95" s="68">
-        <v>1</v>
-      </c>
-      <c r="L95" s="68">
-        <v>0</v>
-      </c>
-      <c r="M95" s="68">
-        <v>0</v>
-      </c>
+      <c r="J95" s="68"/>
+      <c r="K95" s="68"/>
+      <c r="L95" s="68"/>
+      <c r="M95" s="68"/>
       <c r="N95" s="67"/>
       <c r="O95" s="10"/>
       <c r="P95" s="53"/>
@@ -10159,40 +8513,18 @@
     </row>
     <row r="96" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="55">
-        <v>74</v>
-      </c>
-      <c r="C96" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="D96" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="E96" s="47">
-        <v>3</v>
-      </c>
-      <c r="F96" s="47">
-        <v>0</v>
-      </c>
-      <c r="G96" s="47">
-        <v>3</v>
-      </c>
-      <c r="H96" s="47">
-        <v>4.3</v>
-      </c>
+      <c r="B96" s="55"/>
+      <c r="C96" s="46"/>
+      <c r="D96" s="46"/>
+      <c r="E96" s="47"/>
+      <c r="F96" s="47"/>
+      <c r="G96" s="47"/>
+      <c r="H96" s="47"/>
       <c r="I96" s="63"/>
-      <c r="J96" s="50">
-        <v>7</v>
-      </c>
-      <c r="K96" s="50">
-        <v>6.5</v>
-      </c>
-      <c r="L96" s="50">
-        <v>5.5</v>
-      </c>
-      <c r="M96" s="50">
-        <v>6.5</v>
-      </c>
+      <c r="J96" s="50"/>
+      <c r="K96" s="50"/>
+      <c r="L96" s="50"/>
+      <c r="M96" s="50"/>
       <c r="N96" s="67"/>
       <c r="O96" s="10"/>
       <c r="P96" s="53"/>
@@ -10247,40 +8579,18 @@
     </row>
     <row r="97" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="45">
-        <v>75</v>
-      </c>
-      <c r="C97" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="D97" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="E97" s="47">
-        <v>3</v>
-      </c>
-      <c r="F97" s="47">
-        <v>3</v>
-      </c>
-      <c r="G97" s="47">
-        <v>2.5</v>
-      </c>
-      <c r="H97" s="47">
-        <v>2.6</v>
-      </c>
+      <c r="B97" s="45"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="46"/>
+      <c r="E97" s="47"/>
+      <c r="F97" s="47"/>
+      <c r="G97" s="47"/>
+      <c r="H97" s="47"/>
       <c r="I97" s="63"/>
-      <c r="J97" s="50">
-        <v>5</v>
-      </c>
-      <c r="K97" s="50">
-        <v>5</v>
-      </c>
-      <c r="L97" s="50">
-        <v>5</v>
-      </c>
-      <c r="M97" s="50">
-        <v>0</v>
-      </c>
+      <c r="J97" s="50"/>
+      <c r="K97" s="50"/>
+      <c r="L97" s="50"/>
+      <c r="M97" s="50"/>
       <c r="N97" s="67"/>
       <c r="O97" s="10"/>
       <c r="P97" s="53"/>
@@ -10335,40 +8645,18 @@
     </row>
     <row r="98" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="55">
-        <v>76</v>
-      </c>
-      <c r="C98" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="D98" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="E98" s="47">
-        <v>3</v>
-      </c>
-      <c r="F98" s="47">
-        <v>3</v>
-      </c>
-      <c r="G98" s="47">
-        <v>3</v>
-      </c>
-      <c r="H98" s="47">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="B98" s="55"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="46"/>
+      <c r="E98" s="47"/>
+      <c r="F98" s="47"/>
+      <c r="G98" s="47"/>
+      <c r="H98" s="47"/>
       <c r="I98" s="63"/>
-      <c r="J98" s="50">
-        <v>8</v>
-      </c>
-      <c r="K98" s="50">
-        <v>7</v>
-      </c>
-      <c r="L98" s="50">
-        <v>8.5</v>
-      </c>
-      <c r="M98" s="50">
-        <v>9</v>
-      </c>
+      <c r="J98" s="50"/>
+      <c r="K98" s="50"/>
+      <c r="L98" s="50"/>
+      <c r="M98" s="50"/>
       <c r="N98" s="67"/>
       <c r="O98" s="10"/>
       <c r="P98" s="53"/>
@@ -10423,40 +8711,18 @@
     </row>
     <row r="99" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="45">
-        <v>77</v>
-      </c>
-      <c r="C99" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="D99" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="E99" s="47">
-        <v>4</v>
-      </c>
-      <c r="F99" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="G99" s="47">
-        <v>3</v>
-      </c>
-      <c r="H99" s="47">
-        <v>4.5999999999999996</v>
-      </c>
+      <c r="B99" s="45"/>
+      <c r="C99" s="46"/>
+      <c r="D99" s="46"/>
+      <c r="E99" s="47"/>
+      <c r="F99" s="47"/>
+      <c r="G99" s="47"/>
+      <c r="H99" s="47"/>
       <c r="I99" s="63"/>
-      <c r="J99" s="50">
-        <v>7</v>
-      </c>
-      <c r="K99" s="50">
-        <v>6.5</v>
-      </c>
-      <c r="L99" s="50">
-        <v>5.5</v>
-      </c>
-      <c r="M99" s="50">
-        <v>6</v>
-      </c>
+      <c r="J99" s="50"/>
+      <c r="K99" s="50"/>
+      <c r="L99" s="50"/>
+      <c r="M99" s="50"/>
       <c r="N99" s="67"/>
       <c r="O99" s="10"/>
       <c r="P99" s="53"/>
@@ -10511,40 +8777,18 @@
     </row>
     <row r="100" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="55">
-        <v>78</v>
-      </c>
-      <c r="C100" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="D100" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="E100" s="47">
-        <v>4</v>
-      </c>
-      <c r="F100" s="47">
-        <v>2.6</v>
-      </c>
-      <c r="G100" s="47">
-        <v>3</v>
-      </c>
-      <c r="H100" s="47">
-        <v>5</v>
-      </c>
+      <c r="B100" s="55"/>
+      <c r="C100" s="46"/>
+      <c r="D100" s="46"/>
+      <c r="E100" s="47"/>
+      <c r="F100" s="47"/>
+      <c r="G100" s="47"/>
+      <c r="H100" s="47"/>
       <c r="I100" s="63"/>
-      <c r="J100" s="50">
-        <v>6</v>
-      </c>
-      <c r="K100" s="50">
-        <v>5.5</v>
-      </c>
-      <c r="L100" s="50">
-        <v>6</v>
-      </c>
-      <c r="M100" s="50">
-        <v>5</v>
-      </c>
+      <c r="J100" s="50"/>
+      <c r="K100" s="50"/>
+      <c r="L100" s="50"/>
+      <c r="M100" s="50"/>
       <c r="N100" s="67"/>
       <c r="O100" s="10"/>
       <c r="P100" s="53"/>
@@ -10599,40 +8843,18 @@
     </row>
     <row r="101" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="45">
-        <v>79</v>
-      </c>
-      <c r="C101" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="D101" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="E101" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="F101" s="47">
-        <v>2.5</v>
-      </c>
-      <c r="G101" s="47">
-        <v>2</v>
-      </c>
-      <c r="H101" s="47">
-        <v>5</v>
-      </c>
+      <c r="B101" s="45"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="46"/>
+      <c r="E101" s="47"/>
+      <c r="F101" s="47"/>
+      <c r="G101" s="47"/>
+      <c r="H101" s="47"/>
       <c r="I101" s="63"/>
-      <c r="J101" s="50">
-        <v>7</v>
-      </c>
-      <c r="K101" s="50">
-        <v>7</v>
-      </c>
-      <c r="L101" s="50">
-        <v>8</v>
-      </c>
-      <c r="M101" s="50">
-        <v>9</v>
-      </c>
+      <c r="J101" s="50"/>
+      <c r="K101" s="50"/>
+      <c r="L101" s="50"/>
+      <c r="M101" s="50"/>
       <c r="N101" s="67"/>
       <c r="O101" s="10"/>
       <c r="P101" s="53"/>
@@ -10687,40 +8909,18 @@
     </row>
     <row r="102" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="B102" s="55">
-        <v>80</v>
-      </c>
-      <c r="C102" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="D102" s="46" t="s">
-        <v>219</v>
-      </c>
-      <c r="E102" s="47">
-        <v>3</v>
-      </c>
-      <c r="F102" s="47">
-        <v>0</v>
-      </c>
-      <c r="G102" s="47">
-        <v>3.1</v>
-      </c>
-      <c r="H102" s="47">
-        <v>6</v>
-      </c>
+      <c r="B102" s="55"/>
+      <c r="C102" s="46"/>
+      <c r="D102" s="46"/>
+      <c r="E102" s="47"/>
+      <c r="F102" s="47"/>
+      <c r="G102" s="47"/>
+      <c r="H102" s="47"/>
       <c r="I102" s="63"/>
-      <c r="J102" s="50">
-        <v>5</v>
-      </c>
-      <c r="K102" s="50">
-        <v>0</v>
-      </c>
-      <c r="L102" s="69">
-        <v>0</v>
-      </c>
-      <c r="M102" s="50">
-        <v>5.5</v>
-      </c>
+      <c r="J102" s="50"/>
+      <c r="K102" s="50"/>
+      <c r="L102" s="69"/>
+      <c r="M102" s="50"/>
       <c r="N102" s="67"/>
       <c r="O102" s="10"/>
       <c r="P102" s="53"/>
@@ -10775,40 +8975,18 @@
     </row>
     <row r="103" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
-      <c r="B103" s="45">
-        <v>81</v>
-      </c>
-      <c r="C103" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="D103" s="46" t="s">
-        <v>221</v>
-      </c>
-      <c r="E103" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="F103" s="47">
-        <v>2.5</v>
-      </c>
-      <c r="G103" s="47">
-        <v>2</v>
-      </c>
-      <c r="H103" s="47">
-        <v>5</v>
-      </c>
+      <c r="B103" s="45"/>
+      <c r="C103" s="46"/>
+      <c r="D103" s="46"/>
+      <c r="E103" s="47"/>
+      <c r="F103" s="47"/>
+      <c r="G103" s="47"/>
+      <c r="H103" s="47"/>
       <c r="I103" s="63"/>
-      <c r="J103" s="50">
-        <v>7</v>
-      </c>
-      <c r="K103" s="50">
-        <v>7</v>
-      </c>
-      <c r="L103" s="50">
-        <v>7</v>
-      </c>
-      <c r="M103" s="50">
-        <v>8</v>
-      </c>
+      <c r="J103" s="50"/>
+      <c r="K103" s="50"/>
+      <c r="L103" s="50"/>
+      <c r="M103" s="50"/>
       <c r="N103" s="67"/>
       <c r="O103" s="10"/>
       <c r="P103" s="53"/>
@@ -10863,40 +9041,18 @@
     </row>
     <row r="104" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
-      <c r="B104" s="55">
-        <v>82</v>
-      </c>
-      <c r="C104" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="D104" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="E104" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="F104" s="47">
-        <v>2.5</v>
-      </c>
-      <c r="G104" s="47">
-        <v>1</v>
-      </c>
-      <c r="H104" s="47">
-        <v>3.3</v>
-      </c>
+      <c r="B104" s="55"/>
+      <c r="C104" s="46"/>
+      <c r="D104" s="46"/>
+      <c r="E104" s="47"/>
+      <c r="F104" s="47"/>
+      <c r="G104" s="47"/>
+      <c r="H104" s="47"/>
       <c r="I104" s="63"/>
-      <c r="J104" s="50">
-        <v>5</v>
-      </c>
-      <c r="K104" s="50">
-        <v>4</v>
-      </c>
-      <c r="L104" s="50">
-        <v>0</v>
-      </c>
-      <c r="M104" s="50">
-        <v>0</v>
-      </c>
+      <c r="J104" s="50"/>
+      <c r="K104" s="50"/>
+      <c r="L104" s="50"/>
+      <c r="M104" s="50"/>
       <c r="N104" s="67"/>
       <c r="O104" s="10"/>
       <c r="P104" s="53"/>
@@ -10951,40 +9107,18 @@
     </row>
     <row r="105" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="45">
-        <v>83</v>
-      </c>
-      <c r="C105" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="D105" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="E105" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="F105" s="47">
-        <v>2.6</v>
-      </c>
-      <c r="G105" s="47">
-        <v>0</v>
-      </c>
-      <c r="H105" s="47">
-        <v>5</v>
-      </c>
+      <c r="B105" s="45"/>
+      <c r="C105" s="46"/>
+      <c r="D105" s="46"/>
+      <c r="E105" s="47"/>
+      <c r="F105" s="47"/>
+      <c r="G105" s="47"/>
+      <c r="H105" s="47"/>
       <c r="I105" s="63"/>
-      <c r="J105" s="50">
-        <v>7</v>
-      </c>
-      <c r="K105" s="50">
-        <v>6</v>
-      </c>
-      <c r="L105" s="50">
-        <v>7</v>
-      </c>
-      <c r="M105" s="50">
-        <v>8</v>
-      </c>
+      <c r="J105" s="50"/>
+      <c r="K105" s="50"/>
+      <c r="L105" s="50"/>
+      <c r="M105" s="50"/>
       <c r="N105" s="67"/>
       <c r="O105" s="10"/>
       <c r="P105" s="53"/>
@@ -11039,40 +9173,18 @@
     </row>
     <row r="106" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="55">
-        <v>84</v>
-      </c>
-      <c r="C106" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="D106" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="E106" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="F106" s="47">
-        <v>2.5</v>
-      </c>
-      <c r="G106" s="47">
-        <v>3</v>
-      </c>
-      <c r="H106" s="47">
-        <v>6.6</v>
-      </c>
+      <c r="B106" s="55"/>
+      <c r="C106" s="46"/>
+      <c r="D106" s="46"/>
+      <c r="E106" s="47"/>
+      <c r="F106" s="47"/>
+      <c r="G106" s="47"/>
+      <c r="H106" s="47"/>
       <c r="I106" s="63"/>
-      <c r="J106" s="50">
-        <v>6</v>
-      </c>
-      <c r="K106" s="50">
-        <v>3</v>
-      </c>
-      <c r="L106" s="50">
-        <v>5</v>
-      </c>
-      <c r="M106" s="50">
-        <v>5.5</v>
-      </c>
+      <c r="J106" s="50"/>
+      <c r="K106" s="50"/>
+      <c r="L106" s="50"/>
+      <c r="M106" s="50"/>
       <c r="N106" s="67"/>
       <c r="O106" s="10"/>
       <c r="P106" s="53"/>
@@ -11127,40 +9239,18 @@
     </row>
     <row r="107" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-      <c r="B107" s="45">
-        <v>85</v>
-      </c>
-      <c r="C107" s="46" t="s">
-        <v>228</v>
-      </c>
-      <c r="D107" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="E107" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="F107" s="47">
-        <v>2.6</v>
-      </c>
-      <c r="G107" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="H107" s="47">
-        <v>5</v>
-      </c>
+      <c r="B107" s="45"/>
+      <c r="C107" s="46"/>
+      <c r="D107" s="46"/>
+      <c r="E107" s="47"/>
+      <c r="F107" s="47"/>
+      <c r="G107" s="47"/>
+      <c r="H107" s="47"/>
       <c r="I107" s="63"/>
-      <c r="J107" s="50">
-        <v>5</v>
-      </c>
-      <c r="K107" s="50">
-        <v>5</v>
-      </c>
-      <c r="L107" s="50">
-        <v>5</v>
-      </c>
-      <c r="M107" s="50">
-        <v>4</v>
-      </c>
+      <c r="J107" s="50"/>
+      <c r="K107" s="50"/>
+      <c r="L107" s="50"/>
+      <c r="M107" s="50"/>
       <c r="N107" s="67"/>
       <c r="O107" s="10"/>
       <c r="P107" s="53"/>
@@ -11215,40 +9305,18 @@
     </row>
     <row r="108" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
-      <c r="B108" s="55">
-        <v>86</v>
-      </c>
-      <c r="C108" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="D108" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="E108" s="47">
-        <v>3</v>
-      </c>
-      <c r="F108" s="47">
-        <v>3</v>
-      </c>
-      <c r="G108" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="H108" s="47">
-        <v>5</v>
-      </c>
+      <c r="B108" s="55"/>
+      <c r="C108" s="46"/>
+      <c r="D108" s="46"/>
+      <c r="E108" s="47"/>
+      <c r="F108" s="47"/>
+      <c r="G108" s="47"/>
+      <c r="H108" s="47"/>
       <c r="I108" s="63"/>
-      <c r="J108" s="50">
-        <v>7</v>
-      </c>
-      <c r="K108" s="50">
-        <v>6</v>
-      </c>
-      <c r="L108" s="50">
-        <v>5.5</v>
-      </c>
-      <c r="M108" s="50">
-        <v>5</v>
-      </c>
+      <c r="J108" s="50"/>
+      <c r="K108" s="50"/>
+      <c r="L108" s="50"/>
+      <c r="M108" s="50"/>
       <c r="N108" s="67"/>
       <c r="O108" s="10"/>
       <c r="P108" s="53"/>
@@ -11303,40 +9371,18 @@
     </row>
     <row r="109" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
-      <c r="B109" s="45">
-        <v>87</v>
-      </c>
-      <c r="C109" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="D109" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="E109" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="F109" s="47">
-        <v>2.5</v>
-      </c>
-      <c r="G109" s="47">
-        <v>2.5</v>
-      </c>
-      <c r="H109" s="47">
-        <v>3.6</v>
-      </c>
+      <c r="B109" s="45"/>
+      <c r="C109" s="46"/>
+      <c r="D109" s="46"/>
+      <c r="E109" s="47"/>
+      <c r="F109" s="47"/>
+      <c r="G109" s="47"/>
+      <c r="H109" s="47"/>
       <c r="I109" s="63"/>
-      <c r="J109" s="50">
-        <v>6</v>
-      </c>
-      <c r="K109" s="50">
-        <v>6</v>
-      </c>
-      <c r="L109" s="50">
-        <v>5</v>
-      </c>
-      <c r="M109" s="50">
-        <v>1.5</v>
-      </c>
+      <c r="J109" s="50"/>
+      <c r="K109" s="50"/>
+      <c r="L109" s="50"/>
+      <c r="M109" s="50"/>
       <c r="N109" s="67"/>
       <c r="O109" s="10"/>
       <c r="P109" s="53"/>
@@ -11391,40 +9437,18 @@
     </row>
     <row r="110" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
-      <c r="B110" s="55">
-        <v>88</v>
-      </c>
-      <c r="C110" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="D110" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="E110" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="F110" s="47">
-        <v>2.5</v>
-      </c>
-      <c r="G110" s="47">
-        <v>2.6</v>
-      </c>
-      <c r="H110" s="47">
-        <v>5</v>
-      </c>
+      <c r="B110" s="55"/>
+      <c r="C110" s="46"/>
+      <c r="D110" s="46"/>
+      <c r="E110" s="47"/>
+      <c r="F110" s="47"/>
+      <c r="G110" s="47"/>
+      <c r="H110" s="47"/>
       <c r="I110" s="63"/>
-      <c r="J110" s="50">
-        <v>6</v>
-      </c>
-      <c r="K110" s="50">
-        <v>6.5</v>
-      </c>
-      <c r="L110" s="50">
-        <v>5.5</v>
-      </c>
-      <c r="M110" s="50">
-        <v>5</v>
-      </c>
+      <c r="J110" s="50"/>
+      <c r="K110" s="50"/>
+      <c r="L110" s="50"/>
+      <c r="M110" s="50"/>
       <c r="N110" s="67"/>
       <c r="O110" s="10"/>
       <c r="P110" s="53"/>
@@ -11479,40 +9503,18 @@
     </row>
     <row r="111" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="45">
-        <v>89</v>
-      </c>
-      <c r="C111" s="46" t="s">
-        <v>236</v>
-      </c>
-      <c r="D111" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="E111" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="F111" s="47">
-        <v>2.5</v>
-      </c>
-      <c r="G111" s="47">
-        <v>3</v>
-      </c>
-      <c r="H111" s="47">
-        <v>2.4</v>
-      </c>
+      <c r="B111" s="45"/>
+      <c r="C111" s="46"/>
+      <c r="D111" s="46"/>
+      <c r="E111" s="47"/>
+      <c r="F111" s="47"/>
+      <c r="G111" s="47"/>
+      <c r="H111" s="47"/>
       <c r="I111" s="63"/>
-      <c r="J111" s="50">
-        <v>6</v>
-      </c>
-      <c r="K111" s="50">
-        <v>5.5</v>
-      </c>
-      <c r="L111" s="50">
-        <v>5</v>
-      </c>
-      <c r="M111" s="50">
-        <v>1</v>
-      </c>
+      <c r="J111" s="50"/>
+      <c r="K111" s="50"/>
+      <c r="L111" s="50"/>
+      <c r="M111" s="50"/>
       <c r="N111" s="67"/>
       <c r="O111" s="10"/>
       <c r="P111" s="53"/>
@@ -11567,40 +9569,18 @@
     </row>
     <row r="112" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
-      <c r="B112" s="55">
-        <v>90</v>
-      </c>
-      <c r="C112" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="D112" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="E112" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="F112" s="47">
-        <v>2.5</v>
-      </c>
-      <c r="G112" s="47">
-        <v>2</v>
-      </c>
-      <c r="H112" s="47">
-        <v>5</v>
-      </c>
+      <c r="B112" s="55"/>
+      <c r="C112" s="46"/>
+      <c r="D112" s="46"/>
+      <c r="E112" s="47"/>
+      <c r="F112" s="47"/>
+      <c r="G112" s="47"/>
+      <c r="H112" s="47"/>
       <c r="I112" s="63"/>
-      <c r="J112" s="50">
-        <v>5</v>
-      </c>
-      <c r="K112" s="50">
-        <v>0</v>
-      </c>
-      <c r="L112" s="50">
-        <v>5</v>
-      </c>
-      <c r="M112" s="50">
-        <v>2</v>
-      </c>
+      <c r="J112" s="50"/>
+      <c r="K112" s="50"/>
+      <c r="L112" s="50"/>
+      <c r="M112" s="50"/>
       <c r="N112" s="67"/>
       <c r="O112" s="10"/>
       <c r="P112" s="53"/>
@@ -11655,40 +9635,18 @@
     </row>
     <row r="113" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-      <c r="B113" s="45">
-        <v>91</v>
-      </c>
-      <c r="C113" s="46" t="s">
-        <v>240</v>
-      </c>
-      <c r="D113" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="E113" s="47">
-        <v>3</v>
-      </c>
-      <c r="F113" s="47">
-        <v>2.6</v>
-      </c>
-      <c r="G113" s="47">
-        <v>2</v>
-      </c>
-      <c r="H113" s="47">
-        <v>3</v>
-      </c>
+      <c r="B113" s="45"/>
+      <c r="C113" s="46"/>
+      <c r="D113" s="46"/>
+      <c r="E113" s="47"/>
+      <c r="F113" s="47"/>
+      <c r="G113" s="47"/>
+      <c r="H113" s="47"/>
       <c r="I113" s="63"/>
-      <c r="J113" s="50">
-        <v>6</v>
-      </c>
-      <c r="K113" s="50">
-        <v>5</v>
-      </c>
-      <c r="L113" s="50">
-        <v>3</v>
-      </c>
-      <c r="M113" s="50">
-        <v>0</v>
-      </c>
+      <c r="J113" s="50"/>
+      <c r="K113" s="50"/>
+      <c r="L113" s="50"/>
+      <c r="M113" s="50"/>
       <c r="N113" s="67"/>
       <c r="O113" s="10"/>
       <c r="P113" s="53"/>
@@ -11743,40 +9701,18 @@
     </row>
     <row r="114" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="55">
-        <v>92</v>
-      </c>
-      <c r="C114" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="D114" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="E114" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="F114" s="47">
-        <v>2.5</v>
-      </c>
-      <c r="G114" s="47">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H114" s="47">
-        <v>5</v>
-      </c>
+      <c r="B114" s="55"/>
+      <c r="C114" s="46"/>
+      <c r="D114" s="46"/>
+      <c r="E114" s="47"/>
+      <c r="F114" s="47"/>
+      <c r="G114" s="47"/>
+      <c r="H114" s="47"/>
       <c r="I114" s="63"/>
-      <c r="J114" s="50">
-        <v>5</v>
-      </c>
-      <c r="K114" s="50">
-        <v>5</v>
-      </c>
-      <c r="L114" s="50">
-        <v>5</v>
-      </c>
-      <c r="M114" s="50">
-        <v>5</v>
-      </c>
+      <c r="J114" s="50"/>
+      <c r="K114" s="50"/>
+      <c r="L114" s="50"/>
+      <c r="M114" s="50"/>
       <c r="N114" s="67"/>
       <c r="O114" s="10"/>
       <c r="P114" s="53"/>
@@ -11831,40 +9767,18 @@
     </row>
     <row r="115" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="B115" s="45">
-        <v>93</v>
-      </c>
-      <c r="C115" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="D115" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="E115" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="F115" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="G115" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="H115" s="47">
-        <v>3.7</v>
-      </c>
+      <c r="B115" s="45"/>
+      <c r="C115" s="46"/>
+      <c r="D115" s="46"/>
+      <c r="E115" s="47"/>
+      <c r="F115" s="47"/>
+      <c r="G115" s="47"/>
+      <c r="H115" s="47"/>
       <c r="I115" s="63"/>
-      <c r="J115" s="50">
-        <v>8</v>
-      </c>
-      <c r="K115" s="50">
-        <v>7</v>
-      </c>
-      <c r="L115" s="50">
-        <v>8.5</v>
-      </c>
-      <c r="M115" s="50">
-        <v>8</v>
-      </c>
+      <c r="J115" s="50"/>
+      <c r="K115" s="50"/>
+      <c r="L115" s="50"/>
+      <c r="M115" s="50"/>
       <c r="N115" s="67"/>
       <c r="O115" s="10"/>
       <c r="P115" s="53"/>
@@ -11919,40 +9833,18 @@
     </row>
     <row r="116" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
-      <c r="B116" s="55">
-        <v>94</v>
-      </c>
-      <c r="C116" s="46" t="s">
-        <v>246</v>
-      </c>
-      <c r="D116" s="46" t="s">
-        <v>247</v>
-      </c>
-      <c r="E116" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="F116" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="G116" s="47">
-        <v>3</v>
-      </c>
-      <c r="H116" s="47">
-        <v>6.6</v>
-      </c>
+      <c r="B116" s="55"/>
+      <c r="C116" s="46"/>
+      <c r="D116" s="46"/>
+      <c r="E116" s="47"/>
+      <c r="F116" s="47"/>
+      <c r="G116" s="47"/>
+      <c r="H116" s="47"/>
       <c r="I116" s="63"/>
-      <c r="J116" s="50">
-        <v>8</v>
-      </c>
-      <c r="K116" s="50">
-        <v>7</v>
-      </c>
-      <c r="L116" s="50">
-        <v>8.5</v>
-      </c>
-      <c r="M116" s="50">
-        <v>10</v>
-      </c>
+      <c r="J116" s="50"/>
+      <c r="K116" s="50"/>
+      <c r="L116" s="50"/>
+      <c r="M116" s="50"/>
       <c r="N116" s="67"/>
       <c r="O116" s="10"/>
       <c r="P116" s="53"/>
@@ -12007,40 +9899,18 @@
     </row>
     <row r="117" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
-      <c r="B117" s="45">
-        <v>95</v>
-      </c>
-      <c r="C117" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="D117" s="46" t="s">
-        <v>249</v>
-      </c>
-      <c r="E117" s="47">
-        <v>4</v>
-      </c>
-      <c r="F117" s="47">
-        <v>3</v>
-      </c>
-      <c r="G117" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="H117" s="47">
-        <v>3.7</v>
-      </c>
+      <c r="B117" s="45"/>
+      <c r="C117" s="46"/>
+      <c r="D117" s="46"/>
+      <c r="E117" s="47"/>
+      <c r="F117" s="47"/>
+      <c r="G117" s="47"/>
+      <c r="H117" s="47"/>
       <c r="I117" s="63"/>
-      <c r="J117" s="50">
-        <v>6</v>
-      </c>
-      <c r="K117" s="50">
-        <v>6</v>
-      </c>
-      <c r="L117" s="50">
-        <v>5.5</v>
-      </c>
-      <c r="M117" s="50">
-        <v>3</v>
-      </c>
+      <c r="J117" s="50"/>
+      <c r="K117" s="50"/>
+      <c r="L117" s="50"/>
+      <c r="M117" s="50"/>
       <c r="N117" s="67"/>
       <c r="O117" s="10"/>
       <c r="P117" s="53"/>
@@ -12095,40 +9965,18 @@
     </row>
     <row r="118" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="B118" s="55">
-        <v>96</v>
-      </c>
-      <c r="C118" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="D118" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="E118" s="47">
-        <v>4</v>
-      </c>
-      <c r="F118" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="G118" s="47">
-        <v>3</v>
-      </c>
-      <c r="H118" s="47">
-        <v>5.0999999999999996</v>
-      </c>
+      <c r="B118" s="55"/>
+      <c r="C118" s="46"/>
+      <c r="D118" s="46"/>
+      <c r="E118" s="47"/>
+      <c r="F118" s="47"/>
+      <c r="G118" s="47"/>
+      <c r="H118" s="47"/>
       <c r="I118" s="63"/>
-      <c r="J118" s="50">
-        <v>8</v>
-      </c>
-      <c r="K118" s="50">
-        <v>7</v>
-      </c>
-      <c r="L118" s="50">
-        <v>8.5</v>
-      </c>
-      <c r="M118" s="50">
-        <v>9</v>
-      </c>
+      <c r="J118" s="50"/>
+      <c r="K118" s="50"/>
+      <c r="L118" s="50"/>
+      <c r="M118" s="50"/>
       <c r="N118" s="67"/>
       <c r="O118" s="10"/>
       <c r="P118" s="53"/>
@@ -12183,40 +10031,18 @@
     </row>
     <row r="119" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-      <c r="B119" s="45">
-        <v>97</v>
-      </c>
-      <c r="C119" s="46" t="s">
-        <v>252</v>
-      </c>
-      <c r="D119" s="46" t="s">
-        <v>253</v>
-      </c>
-      <c r="E119" s="47">
-        <v>3</v>
-      </c>
-      <c r="F119" s="47">
-        <v>3</v>
-      </c>
-      <c r="G119" s="47">
-        <v>3.1</v>
-      </c>
-      <c r="H119" s="47">
-        <v>2</v>
-      </c>
+      <c r="B119" s="45"/>
+      <c r="C119" s="46"/>
+      <c r="D119" s="46"/>
+      <c r="E119" s="47"/>
+      <c r="F119" s="47"/>
+      <c r="G119" s="47"/>
+      <c r="H119" s="47"/>
       <c r="I119" s="63"/>
-      <c r="J119" s="50">
-        <v>7</v>
-      </c>
-      <c r="K119" s="50">
-        <v>6.5</v>
-      </c>
-      <c r="L119" s="50">
-        <v>5.5</v>
-      </c>
-      <c r="M119" s="50">
-        <v>3</v>
-      </c>
+      <c r="J119" s="50"/>
+      <c r="K119" s="50"/>
+      <c r="L119" s="50"/>
+      <c r="M119" s="50"/>
       <c r="N119" s="67"/>
       <c r="O119" s="10"/>
       <c r="P119" s="53"/>
@@ -12271,40 +10097,18 @@
     </row>
     <row r="120" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
-      <c r="B120" s="55">
-        <v>98</v>
-      </c>
-      <c r="C120" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="D120" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="E120" s="47">
-        <v>4</v>
-      </c>
-      <c r="F120" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="G120" s="47">
-        <v>3</v>
-      </c>
-      <c r="H120" s="47">
-        <v>6.5</v>
-      </c>
+      <c r="B120" s="55"/>
+      <c r="C120" s="46"/>
+      <c r="D120" s="46"/>
+      <c r="E120" s="47"/>
+      <c r="F120" s="47"/>
+      <c r="G120" s="47"/>
+      <c r="H120" s="47"/>
       <c r="I120" s="1"/>
-      <c r="J120" s="50">
-        <v>6</v>
-      </c>
-      <c r="K120" s="50">
-        <v>6</v>
-      </c>
-      <c r="L120" s="50">
-        <v>8.5</v>
-      </c>
-      <c r="M120" s="50">
-        <v>6</v>
-      </c>
+      <c r="J120" s="50"/>
+      <c r="K120" s="50"/>
+      <c r="L120" s="50"/>
+      <c r="M120" s="50"/>
       <c r="N120" s="1"/>
       <c r="O120" s="10"/>
       <c r="P120" s="53"/>
@@ -12359,40 +10163,18 @@
     </row>
     <row r="121" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
-      <c r="B121" s="45">
-        <v>99</v>
-      </c>
-      <c r="C121" s="46" t="s">
-        <v>256</v>
-      </c>
-      <c r="D121" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="E121" s="47">
-        <v>2.5</v>
-      </c>
-      <c r="F121" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="G121" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="H121" s="47">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="B121" s="45"/>
+      <c r="C121" s="46"/>
+      <c r="D121" s="46"/>
+      <c r="E121" s="47"/>
+      <c r="F121" s="47"/>
+      <c r="G121" s="47"/>
+      <c r="H121" s="47"/>
       <c r="I121" s="1"/>
-      <c r="J121" s="50">
-        <v>5</v>
-      </c>
-      <c r="K121" s="50">
-        <v>5</v>
-      </c>
-      <c r="L121" s="50">
-        <v>7</v>
-      </c>
-      <c r="M121" s="50">
-        <v>3</v>
-      </c>
+      <c r="J121" s="50"/>
+      <c r="K121" s="50"/>
+      <c r="L121" s="50"/>
+      <c r="M121" s="50"/>
       <c r="N121" s="1"/>
       <c r="O121" s="10"/>
       <c r="P121" s="53"/>
@@ -12447,40 +10229,18 @@
     </row>
     <row r="122" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
-      <c r="B122" s="55">
-        <v>100</v>
-      </c>
-      <c r="C122" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="D122" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="E122" s="47">
-        <v>3</v>
-      </c>
-      <c r="F122" s="47">
-        <v>3</v>
-      </c>
-      <c r="G122" s="47">
-        <v>3</v>
-      </c>
-      <c r="H122" s="47">
-        <v>2.2999999999999998</v>
-      </c>
+      <c r="B122" s="55"/>
+      <c r="C122" s="46"/>
+      <c r="D122" s="46"/>
+      <c r="E122" s="47"/>
+      <c r="F122" s="47"/>
+      <c r="G122" s="47"/>
+      <c r="H122" s="47"/>
       <c r="I122" s="1"/>
-      <c r="J122" s="50">
-        <v>8</v>
-      </c>
-      <c r="K122" s="50">
-        <v>7.5</v>
-      </c>
-      <c r="L122" s="50">
-        <v>8.5</v>
-      </c>
-      <c r="M122" s="50">
-        <v>9</v>
-      </c>
+      <c r="J122" s="50"/>
+      <c r="K122" s="50"/>
+      <c r="L122" s="50"/>
+      <c r="M122" s="50"/>
       <c r="N122" s="1"/>
       <c r="O122" s="10"/>
       <c r="P122" s="53"/>
@@ -12535,40 +10295,18 @@
     </row>
     <row r="123" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
-      <c r="B123" s="55">
-        <v>101</v>
-      </c>
-      <c r="C123" s="46" t="s">
-        <v>260</v>
-      </c>
-      <c r="D123" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="E123" s="47">
-        <v>3</v>
-      </c>
-      <c r="F123" s="47">
-        <v>3</v>
-      </c>
-      <c r="G123" s="47">
-        <v>3</v>
-      </c>
-      <c r="H123" s="47">
-        <v>2.2999999999999998</v>
-      </c>
+      <c r="B123" s="55"/>
+      <c r="C123" s="46"/>
+      <c r="D123" s="46"/>
+      <c r="E123" s="47"/>
+      <c r="F123" s="47"/>
+      <c r="G123" s="47"/>
+      <c r="H123" s="47"/>
       <c r="I123" s="1"/>
-      <c r="J123" s="50">
-        <v>8</v>
-      </c>
-      <c r="K123" s="50">
-        <v>7.5</v>
-      </c>
-      <c r="L123" s="50">
-        <v>8.5</v>
-      </c>
-      <c r="M123" s="50">
-        <v>9</v>
-      </c>
+      <c r="J123" s="50"/>
+      <c r="K123" s="50"/>
+      <c r="L123" s="50"/>
+      <c r="M123" s="50"/>
       <c r="N123" s="1"/>
       <c r="O123" s="10"/>
       <c r="P123" s="53"/>
@@ -20811,7 +18549,7 @@
         <v>23</v>
       </c>
       <c r="G270" s="71" t="s">
-        <v>261</v>
+        <v>100</v>
       </c>
       <c r="H270" s="71" t="s">
         <v>31</v>
@@ -20888,7 +18626,7 @@
     <row r="271" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="111" t="s">
-        <v>262</v>
+        <v>101</v>
       </c>
       <c r="C271" s="83"/>
       <c r="D271" s="84"/>
@@ -20956,7 +18694,7 @@
     <row r="272" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="111" t="s">
-        <v>263</v>
+        <v>102</v>
       </c>
       <c r="C272" s="83"/>
       <c r="D272" s="84"/>
@@ -21054,7 +18792,7 @@
     <row r="273" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="112" t="s">
-        <v>264</v>
+        <v>103</v>
       </c>
       <c r="C273" s="83"/>
       <c r="D273" s="84"/>
@@ -21122,7 +18860,7 @@
     <row r="274" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="97" t="s">
-        <v>265</v>
+        <v>104</v>
       </c>
       <c r="C274" s="83"/>
       <c r="D274" s="84"/>
@@ -21208,7 +18946,7 @@
       <c r="R275" s="1"/>
       <c r="S275" s="1"/>
       <c r="T275" s="97" t="s">
-        <v>266</v>
+        <v>105</v>
       </c>
       <c r="U275" s="83"/>
       <c r="V275" s="83"/>
@@ -21276,7 +19014,7 @@
       <c r="R276" s="1"/>
       <c r="S276" s="1"/>
       <c r="T276" s="113" t="s">
-        <v>267</v>
+        <v>106</v>
       </c>
       <c r="U276" s="83"/>
       <c r="V276" s="83"/>
@@ -21285,7 +19023,7 @@
       <c r="Y276" s="84"/>
       <c r="Z276" s="75"/>
       <c r="AA276" s="113" t="s">
-        <v>268</v>
+        <v>107</v>
       </c>
       <c r="AB276" s="83"/>
       <c r="AC276" s="83"/>
@@ -21346,26 +19084,26 @@
       <c r="R277" s="1"/>
       <c r="S277" s="1"/>
       <c r="T277" s="81" t="s">
-        <v>269</v>
+        <v>108</v>
       </c>
       <c r="U277" s="81" t="s">
-        <v>270</v>
+        <v>109</v>
       </c>
       <c r="V277" s="114" t="s">
-        <v>271</v>
+        <v>110</v>
       </c>
       <c r="W277" s="83"/>
       <c r="X277" s="83"/>
       <c r="Y277" s="84"/>
       <c r="Z277" s="81"/>
       <c r="AA277" s="81" t="s">
-        <v>272</v>
+        <v>111</v>
       </c>
       <c r="AB277" s="81" t="s">
-        <v>270</v>
+        <v>109</v>
       </c>
       <c r="AC277" s="114" t="s">
-        <v>273</v>
+        <v>112</v>
       </c>
       <c r="AD277" s="83"/>
       <c r="AE277" s="84"/>
@@ -21431,7 +19169,7 @@
         <v>0</v>
       </c>
       <c r="V278" s="93" t="s">
-        <v>274</v>
+        <v>113</v>
       </c>
       <c r="W278" s="83"/>
       <c r="X278" s="83"/>
@@ -21445,7 +19183,7 @@
         <v>0</v>
       </c>
       <c r="AC278" s="93" t="s">
-        <v>274</v>
+        <v>113</v>
       </c>
       <c r="AD278" s="83"/>
       <c r="AE278" s="84"/>
@@ -21511,7 +19249,7 @@
         <v>0</v>
       </c>
       <c r="V279" s="93" t="s">
-        <v>274</v>
+        <v>113</v>
       </c>
       <c r="W279" s="83"/>
       <c r="X279" s="83"/>
@@ -21525,7 +19263,7 @@
         <v>0</v>
       </c>
       <c r="AC279" s="93" t="s">
-        <v>274</v>
+        <v>113</v>
       </c>
       <c r="AD279" s="83"/>
       <c r="AE279" s="84"/>
@@ -21566,7 +19304,7 @@
     <row r="280" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="82" t="s">
-        <v>275</v>
+        <v>114</v>
       </c>
       <c r="C280" s="83"/>
       <c r="D280" s="83"/>
@@ -21593,7 +19331,7 @@
         <v>0</v>
       </c>
       <c r="V280" s="93" t="s">
-        <v>274</v>
+        <v>113</v>
       </c>
       <c r="W280" s="83"/>
       <c r="X280" s="83"/>
@@ -21607,7 +19345,7 @@
         <v>0</v>
       </c>
       <c r="AC280" s="93" t="s">
-        <v>274</v>
+        <v>113</v>
       </c>
       <c r="AD280" s="83"/>
       <c r="AE280" s="84"/>
@@ -21673,7 +19411,7 @@
         <v>0</v>
       </c>
       <c r="V281" s="93" t="s">
-        <v>274</v>
+        <v>113</v>
       </c>
       <c r="W281" s="83"/>
       <c r="X281" s="83"/>
@@ -21687,7 +19425,7 @@
         <v>0</v>
       </c>
       <c r="AC281" s="93" t="s">
-        <v>274</v>
+        <v>113</v>
       </c>
       <c r="AD281" s="83"/>
       <c r="AE281" s="84"/>
@@ -21728,7 +19466,7 @@
     <row r="282" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="86" t="s">
-        <v>276</v>
+        <v>115</v>
       </c>
       <c r="C282" s="83"/>
       <c r="D282" s="84"/>
@@ -21765,7 +19503,7 @@
         <v>0</v>
       </c>
       <c r="V282" s="93" t="s">
-        <v>274</v>
+        <v>113</v>
       </c>
       <c r="W282" s="83"/>
       <c r="X282" s="83"/>
@@ -21779,7 +19517,7 @@
         <v>0</v>
       </c>
       <c r="AC282" s="93" t="s">
-        <v>274</v>
+        <v>113</v>
       </c>
       <c r="AD282" s="83"/>
       <c r="AE282" s="84"/>
@@ -21820,7 +19558,7 @@
     <row r="283" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="87" t="s">
-        <v>277</v>
+        <v>116</v>
       </c>
       <c r="C283" s="83"/>
       <c r="D283" s="84"/>
@@ -21888,7 +19626,7 @@
     <row r="284" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="85" t="s">
-        <v>278</v>
+        <v>117</v>
       </c>
       <c r="C284" s="83"/>
       <c r="D284" s="84"/>
@@ -21956,7 +19694,7 @@
     <row r="285" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="88" t="s">
-        <v>279</v>
+        <v>118</v>
       </c>
       <c r="C285" s="83"/>
       <c r="D285" s="84"/>
@@ -21968,7 +19706,7 @@
       <c r="J285" s="3"/>
       <c r="K285" s="3"/>
       <c r="L285" s="3"/>
-      <c r="M285" s="61"/>
+      <c r="M285" s="115"/>
       <c r="N285" s="3"/>
       <c r="O285" s="2"/>
       <c r="P285" s="2"/>
@@ -22024,7 +19762,7 @@
     <row r="286" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="89" t="s">
-        <v>280</v>
+        <v>119</v>
       </c>
       <c r="C286" s="83"/>
       <c r="D286" s="84"/>
@@ -22102,7 +19840,7 @@
     <row r="287" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="93" t="s">
-        <v>281</v>
+        <v>120</v>
       </c>
       <c r="C287" s="83"/>
       <c r="D287" s="84"/>
@@ -22170,7 +19908,7 @@
     <row r="288" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="88" t="s">
-        <v>282</v>
+        <v>121</v>
       </c>
       <c r="C288" s="83"/>
       <c r="D288" s="84"/>
@@ -22238,7 +19976,7 @@
     <row r="289" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="88" t="s">
-        <v>283</v>
+        <v>122</v>
       </c>
       <c r="C289" s="83"/>
       <c r="D289" s="84"/>
@@ -23068,7 +20806,7 @@
     <row r="302" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="94" t="s">
-        <v>284</v>
+        <v>123</v>
       </c>
       <c r="C302" s="91"/>
       <c r="D302" s="91"/>
@@ -23136,7 +20874,7 @@
     <row r="303" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="90" t="s">
-        <v>285</v>
+        <v>124</v>
       </c>
       <c r="C303" s="91"/>
       <c r="D303" s="91"/>
@@ -23598,7 +21336,7 @@
     <row r="310" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="92" t="s">
-        <v>286</v>
+        <v>125</v>
       </c>
       <c r="C310" s="91"/>
       <c r="D310" s="2"/>
@@ -23617,7 +21355,7 @@
       <c r="Q310" s="2"/>
       <c r="R310" s="2"/>
       <c r="S310" s="92" t="s">
-        <v>287</v>
+        <v>126</v>
       </c>
       <c r="T310" s="91"/>
       <c r="U310" s="2"/>
